--- a/project/DRP/excel_drive/TestCase.xlsx
+++ b/project/DRP/excel_drive/TestCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785" activeTab="1"/>
+    <workbookView windowWidth="21000" windowHeight="11595" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="修订记录" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
-    <externalReference r:id="rId12"/>
   </externalReferences>
   <definedNames>
     <definedName name="Activity">'[1]Source List'!$C$1:$C$65536</definedName>
@@ -84,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
   <si>
     <t>Transsion《文档修订记录》</t>
   </si>
@@ -170,76 +169,22 @@
     <t>统一登录: DRP</t>
   </si>
   <si>
-    <t>打开登录页</t>
-  </si>
-  <si>
-    <t>goto</t>
+    <t>login</t>
+  </si>
+  <si>
+    <t>jf3249JFL</t>
+  </si>
+  <si>
+    <t>未执行</t>
+  </si>
+  <si>
+    <t>断言</t>
+  </si>
+  <si>
+    <t>assert</t>
   </si>
   <si>
     <t>http://10.250.112.166:9000/#/dashboard</t>
-  </si>
-  <si>
-    <t>未执行</t>
-  </si>
-  <si>
-    <t>切换账号密码登录</t>
-  </si>
-  <si>
-    <t>click</t>
-  </si>
-  <si>
-    <t>//*[@id="tab-account"]</t>
-  </si>
-  <si>
-    <t>输入工号</t>
-  </si>
-  <si>
-    <t>input</t>
-  </si>
-  <si>
-    <t>//*[@id="pane-account"]/form/div[1]/div/div[1]/input</t>
-  </si>
-  <si>
-    <t>输入密码</t>
-  </si>
-  <si>
-    <t>//*[@id="pane-account"]/form/div[2]/div/div[1]/input</t>
-  </si>
-  <si>
-    <t>jf3249JFL</t>
-  </si>
-  <si>
-    <t>勾选(协议)</t>
-  </si>
-  <si>
-    <t>//*[@id="pane-account"]/form/div[4]/label/span/span</t>
-  </si>
-  <si>
-    <t>点击</t>
-  </si>
-  <si>
-    <t>//*[@id="pane-account"]/form/button</t>
-  </si>
-  <si>
-    <t>等待</t>
-  </si>
-  <si>
-    <t>sleep</t>
-  </si>
-  <si>
-    <t>获取url</t>
-  </si>
-  <si>
-    <t>save_url</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>断言</t>
-  </si>
-  <si>
-    <t>assert</t>
   </si>
   <si>
     <t>equal</t>
@@ -353,11 +298,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="[$-409]d\-mmm;@"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -382,14 +327,6 @@
       <color theme="0" tint="-0.349986266670736"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -423,15 +360,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -445,15 +383,61 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -470,50 +454,10 @@
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -528,24 +472,31 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -559,19 +510,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -598,7 +543,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -610,31 +621,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -646,13 +711,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -664,132 +723,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="25">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -837,19 +776,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="1" tint="0.5"/>
-      </left>
-      <right style="thin">
-        <color theme="1" tint="0.5"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="1" tint="0.5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1038,6 +964,39 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -1061,35 +1020,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1108,15 +1043,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1126,10 +1052,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1138,142 +1064,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1318,65 +1244,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="37" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="37" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="10" xfId="37" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="9" xfId="37" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="10" xfId="37" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="9" xfId="37" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1439,14 +1359,14 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
+          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1723,25 +1643,6 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="封面"/>
-      <sheetName val="TestResult_Overview"/>
-      <sheetName val="TestCase_Overview"/>
-      <sheetName val="TestCase_detail"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -2000,7 +1901,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
@@ -2008,693 +1909,692 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="16.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="13.125" style="21" customWidth="1"/>
-    <col min="2" max="2" width="16.375" style="21" customWidth="1"/>
-    <col min="3" max="3" width="32.625" style="21" customWidth="1"/>
-    <col min="4" max="4" width="18.5" style="21" customWidth="1"/>
-    <col min="5" max="5" width="14" style="21" customWidth="1"/>
-    <col min="6" max="256" width="11" style="21"/>
-    <col min="257" max="257" width="14.5" style="21" customWidth="1"/>
-    <col min="258" max="258" width="13.625" style="21" customWidth="1"/>
-    <col min="259" max="259" width="15" style="21" customWidth="1"/>
-    <col min="260" max="260" width="14.5" style="21" customWidth="1"/>
-    <col min="261" max="261" width="14.25" style="21" customWidth="1"/>
-    <col min="262" max="512" width="11" style="21"/>
-    <col min="513" max="513" width="14.5" style="21" customWidth="1"/>
-    <col min="514" max="514" width="13.625" style="21" customWidth="1"/>
-    <col min="515" max="515" width="15" style="21" customWidth="1"/>
-    <col min="516" max="516" width="14.5" style="21" customWidth="1"/>
-    <col min="517" max="517" width="14.25" style="21" customWidth="1"/>
-    <col min="518" max="768" width="11" style="21"/>
-    <col min="769" max="769" width="14.5" style="21" customWidth="1"/>
-    <col min="770" max="770" width="13.625" style="21" customWidth="1"/>
-    <col min="771" max="771" width="15" style="21" customWidth="1"/>
-    <col min="772" max="772" width="14.5" style="21" customWidth="1"/>
-    <col min="773" max="773" width="14.25" style="21" customWidth="1"/>
-    <col min="774" max="1024" width="11" style="21"/>
-    <col min="1025" max="1025" width="14.5" style="21" customWidth="1"/>
-    <col min="1026" max="1026" width="13.625" style="21" customWidth="1"/>
-    <col min="1027" max="1027" width="15" style="21" customWidth="1"/>
-    <col min="1028" max="1028" width="14.5" style="21" customWidth="1"/>
-    <col min="1029" max="1029" width="14.25" style="21" customWidth="1"/>
-    <col min="1030" max="1280" width="11" style="21"/>
-    <col min="1281" max="1281" width="14.5" style="21" customWidth="1"/>
-    <col min="1282" max="1282" width="13.625" style="21" customWidth="1"/>
-    <col min="1283" max="1283" width="15" style="21" customWidth="1"/>
-    <col min="1284" max="1284" width="14.5" style="21" customWidth="1"/>
-    <col min="1285" max="1285" width="14.25" style="21" customWidth="1"/>
-    <col min="1286" max="1536" width="11" style="21"/>
-    <col min="1537" max="1537" width="14.5" style="21" customWidth="1"/>
-    <col min="1538" max="1538" width="13.625" style="21" customWidth="1"/>
-    <col min="1539" max="1539" width="15" style="21" customWidth="1"/>
-    <col min="1540" max="1540" width="14.5" style="21" customWidth="1"/>
-    <col min="1541" max="1541" width="14.25" style="21" customWidth="1"/>
-    <col min="1542" max="1792" width="11" style="21"/>
-    <col min="1793" max="1793" width="14.5" style="21" customWidth="1"/>
-    <col min="1794" max="1794" width="13.625" style="21" customWidth="1"/>
-    <col min="1795" max="1795" width="15" style="21" customWidth="1"/>
-    <col min="1796" max="1796" width="14.5" style="21" customWidth="1"/>
-    <col min="1797" max="1797" width="14.25" style="21" customWidth="1"/>
-    <col min="1798" max="2048" width="11" style="21"/>
-    <col min="2049" max="2049" width="14.5" style="21" customWidth="1"/>
-    <col min="2050" max="2050" width="13.625" style="21" customWidth="1"/>
-    <col min="2051" max="2051" width="15" style="21" customWidth="1"/>
-    <col min="2052" max="2052" width="14.5" style="21" customWidth="1"/>
-    <col min="2053" max="2053" width="14.25" style="21" customWidth="1"/>
-    <col min="2054" max="2304" width="11" style="21"/>
-    <col min="2305" max="2305" width="14.5" style="21" customWidth="1"/>
-    <col min="2306" max="2306" width="13.625" style="21" customWidth="1"/>
-    <col min="2307" max="2307" width="15" style="21" customWidth="1"/>
-    <col min="2308" max="2308" width="14.5" style="21" customWidth="1"/>
-    <col min="2309" max="2309" width="14.25" style="21" customWidth="1"/>
-    <col min="2310" max="2560" width="11" style="21"/>
-    <col min="2561" max="2561" width="14.5" style="21" customWidth="1"/>
-    <col min="2562" max="2562" width="13.625" style="21" customWidth="1"/>
-    <col min="2563" max="2563" width="15" style="21" customWidth="1"/>
-    <col min="2564" max="2564" width="14.5" style="21" customWidth="1"/>
-    <col min="2565" max="2565" width="14.25" style="21" customWidth="1"/>
-    <col min="2566" max="2816" width="11" style="21"/>
-    <col min="2817" max="2817" width="14.5" style="21" customWidth="1"/>
-    <col min="2818" max="2818" width="13.625" style="21" customWidth="1"/>
-    <col min="2819" max="2819" width="15" style="21" customWidth="1"/>
-    <col min="2820" max="2820" width="14.5" style="21" customWidth="1"/>
-    <col min="2821" max="2821" width="14.25" style="21" customWidth="1"/>
-    <col min="2822" max="3072" width="11" style="21"/>
-    <col min="3073" max="3073" width="14.5" style="21" customWidth="1"/>
-    <col min="3074" max="3074" width="13.625" style="21" customWidth="1"/>
-    <col min="3075" max="3075" width="15" style="21" customWidth="1"/>
-    <col min="3076" max="3076" width="14.5" style="21" customWidth="1"/>
-    <col min="3077" max="3077" width="14.25" style="21" customWidth="1"/>
-    <col min="3078" max="3328" width="11" style="21"/>
-    <col min="3329" max="3329" width="14.5" style="21" customWidth="1"/>
-    <col min="3330" max="3330" width="13.625" style="21" customWidth="1"/>
-    <col min="3331" max="3331" width="15" style="21" customWidth="1"/>
-    <col min="3332" max="3332" width="14.5" style="21" customWidth="1"/>
-    <col min="3333" max="3333" width="14.25" style="21" customWidth="1"/>
-    <col min="3334" max="3584" width="11" style="21"/>
-    <col min="3585" max="3585" width="14.5" style="21" customWidth="1"/>
-    <col min="3586" max="3586" width="13.625" style="21" customWidth="1"/>
-    <col min="3587" max="3587" width="15" style="21" customWidth="1"/>
-    <col min="3588" max="3588" width="14.5" style="21" customWidth="1"/>
-    <col min="3589" max="3589" width="14.25" style="21" customWidth="1"/>
-    <col min="3590" max="3840" width="11" style="21"/>
-    <col min="3841" max="3841" width="14.5" style="21" customWidth="1"/>
-    <col min="3842" max="3842" width="13.625" style="21" customWidth="1"/>
-    <col min="3843" max="3843" width="15" style="21" customWidth="1"/>
-    <col min="3844" max="3844" width="14.5" style="21" customWidth="1"/>
-    <col min="3845" max="3845" width="14.25" style="21" customWidth="1"/>
-    <col min="3846" max="4096" width="11" style="21"/>
-    <col min="4097" max="4097" width="14.5" style="21" customWidth="1"/>
-    <col min="4098" max="4098" width="13.625" style="21" customWidth="1"/>
-    <col min="4099" max="4099" width="15" style="21" customWidth="1"/>
-    <col min="4100" max="4100" width="14.5" style="21" customWidth="1"/>
-    <col min="4101" max="4101" width="14.25" style="21" customWidth="1"/>
-    <col min="4102" max="4352" width="11" style="21"/>
-    <col min="4353" max="4353" width="14.5" style="21" customWidth="1"/>
-    <col min="4354" max="4354" width="13.625" style="21" customWidth="1"/>
-    <col min="4355" max="4355" width="15" style="21" customWidth="1"/>
-    <col min="4356" max="4356" width="14.5" style="21" customWidth="1"/>
-    <col min="4357" max="4357" width="14.25" style="21" customWidth="1"/>
-    <col min="4358" max="4608" width="11" style="21"/>
-    <col min="4609" max="4609" width="14.5" style="21" customWidth="1"/>
-    <col min="4610" max="4610" width="13.625" style="21" customWidth="1"/>
-    <col min="4611" max="4611" width="15" style="21" customWidth="1"/>
-    <col min="4612" max="4612" width="14.5" style="21" customWidth="1"/>
-    <col min="4613" max="4613" width="14.25" style="21" customWidth="1"/>
-    <col min="4614" max="4864" width="11" style="21"/>
-    <col min="4865" max="4865" width="14.5" style="21" customWidth="1"/>
-    <col min="4866" max="4866" width="13.625" style="21" customWidth="1"/>
-    <col min="4867" max="4867" width="15" style="21" customWidth="1"/>
-    <col min="4868" max="4868" width="14.5" style="21" customWidth="1"/>
-    <col min="4869" max="4869" width="14.25" style="21" customWidth="1"/>
-    <col min="4870" max="5120" width="11" style="21"/>
-    <col min="5121" max="5121" width="14.5" style="21" customWidth="1"/>
-    <col min="5122" max="5122" width="13.625" style="21" customWidth="1"/>
-    <col min="5123" max="5123" width="15" style="21" customWidth="1"/>
-    <col min="5124" max="5124" width="14.5" style="21" customWidth="1"/>
-    <col min="5125" max="5125" width="14.25" style="21" customWidth="1"/>
-    <col min="5126" max="5376" width="11" style="21"/>
-    <col min="5377" max="5377" width="14.5" style="21" customWidth="1"/>
-    <col min="5378" max="5378" width="13.625" style="21" customWidth="1"/>
-    <col min="5379" max="5379" width="15" style="21" customWidth="1"/>
-    <col min="5380" max="5380" width="14.5" style="21" customWidth="1"/>
-    <col min="5381" max="5381" width="14.25" style="21" customWidth="1"/>
-    <col min="5382" max="5632" width="11" style="21"/>
-    <col min="5633" max="5633" width="14.5" style="21" customWidth="1"/>
-    <col min="5634" max="5634" width="13.625" style="21" customWidth="1"/>
-    <col min="5635" max="5635" width="15" style="21" customWidth="1"/>
-    <col min="5636" max="5636" width="14.5" style="21" customWidth="1"/>
-    <col min="5637" max="5637" width="14.25" style="21" customWidth="1"/>
-    <col min="5638" max="5888" width="11" style="21"/>
-    <col min="5889" max="5889" width="14.5" style="21" customWidth="1"/>
-    <col min="5890" max="5890" width="13.625" style="21" customWidth="1"/>
-    <col min="5891" max="5891" width="15" style="21" customWidth="1"/>
-    <col min="5892" max="5892" width="14.5" style="21" customWidth="1"/>
-    <col min="5893" max="5893" width="14.25" style="21" customWidth="1"/>
-    <col min="5894" max="6144" width="11" style="21"/>
-    <col min="6145" max="6145" width="14.5" style="21" customWidth="1"/>
-    <col min="6146" max="6146" width="13.625" style="21" customWidth="1"/>
-    <col min="6147" max="6147" width="15" style="21" customWidth="1"/>
-    <col min="6148" max="6148" width="14.5" style="21" customWidth="1"/>
-    <col min="6149" max="6149" width="14.25" style="21" customWidth="1"/>
-    <col min="6150" max="6400" width="11" style="21"/>
-    <col min="6401" max="6401" width="14.5" style="21" customWidth="1"/>
-    <col min="6402" max="6402" width="13.625" style="21" customWidth="1"/>
-    <col min="6403" max="6403" width="15" style="21" customWidth="1"/>
-    <col min="6404" max="6404" width="14.5" style="21" customWidth="1"/>
-    <col min="6405" max="6405" width="14.25" style="21" customWidth="1"/>
-    <col min="6406" max="6656" width="11" style="21"/>
-    <col min="6657" max="6657" width="14.5" style="21" customWidth="1"/>
-    <col min="6658" max="6658" width="13.625" style="21" customWidth="1"/>
-    <col min="6659" max="6659" width="15" style="21" customWidth="1"/>
-    <col min="6660" max="6660" width="14.5" style="21" customWidth="1"/>
-    <col min="6661" max="6661" width="14.25" style="21" customWidth="1"/>
-    <col min="6662" max="6912" width="11" style="21"/>
-    <col min="6913" max="6913" width="14.5" style="21" customWidth="1"/>
-    <col min="6914" max="6914" width="13.625" style="21" customWidth="1"/>
-    <col min="6915" max="6915" width="15" style="21" customWidth="1"/>
-    <col min="6916" max="6916" width="14.5" style="21" customWidth="1"/>
-    <col min="6917" max="6917" width="14.25" style="21" customWidth="1"/>
-    <col min="6918" max="7168" width="11" style="21"/>
-    <col min="7169" max="7169" width="14.5" style="21" customWidth="1"/>
-    <col min="7170" max="7170" width="13.625" style="21" customWidth="1"/>
-    <col min="7171" max="7171" width="15" style="21" customWidth="1"/>
-    <col min="7172" max="7172" width="14.5" style="21" customWidth="1"/>
-    <col min="7173" max="7173" width="14.25" style="21" customWidth="1"/>
-    <col min="7174" max="7424" width="11" style="21"/>
-    <col min="7425" max="7425" width="14.5" style="21" customWidth="1"/>
-    <col min="7426" max="7426" width="13.625" style="21" customWidth="1"/>
-    <col min="7427" max="7427" width="15" style="21" customWidth="1"/>
-    <col min="7428" max="7428" width="14.5" style="21" customWidth="1"/>
-    <col min="7429" max="7429" width="14.25" style="21" customWidth="1"/>
-    <col min="7430" max="7680" width="11" style="21"/>
-    <col min="7681" max="7681" width="14.5" style="21" customWidth="1"/>
-    <col min="7682" max="7682" width="13.625" style="21" customWidth="1"/>
-    <col min="7683" max="7683" width="15" style="21" customWidth="1"/>
-    <col min="7684" max="7684" width="14.5" style="21" customWidth="1"/>
-    <col min="7685" max="7685" width="14.25" style="21" customWidth="1"/>
-    <col min="7686" max="7936" width="11" style="21"/>
-    <col min="7937" max="7937" width="14.5" style="21" customWidth="1"/>
-    <col min="7938" max="7938" width="13.625" style="21" customWidth="1"/>
-    <col min="7939" max="7939" width="15" style="21" customWidth="1"/>
-    <col min="7940" max="7940" width="14.5" style="21" customWidth="1"/>
-    <col min="7941" max="7941" width="14.25" style="21" customWidth="1"/>
-    <col min="7942" max="8192" width="11" style="21"/>
-    <col min="8193" max="8193" width="14.5" style="21" customWidth="1"/>
-    <col min="8194" max="8194" width="13.625" style="21" customWidth="1"/>
-    <col min="8195" max="8195" width="15" style="21" customWidth="1"/>
-    <col min="8196" max="8196" width="14.5" style="21" customWidth="1"/>
-    <col min="8197" max="8197" width="14.25" style="21" customWidth="1"/>
-    <col min="8198" max="8448" width="11" style="21"/>
-    <col min="8449" max="8449" width="14.5" style="21" customWidth="1"/>
-    <col min="8450" max="8450" width="13.625" style="21" customWidth="1"/>
-    <col min="8451" max="8451" width="15" style="21" customWidth="1"/>
-    <col min="8452" max="8452" width="14.5" style="21" customWidth="1"/>
-    <col min="8453" max="8453" width="14.25" style="21" customWidth="1"/>
-    <col min="8454" max="8704" width="11" style="21"/>
-    <col min="8705" max="8705" width="14.5" style="21" customWidth="1"/>
-    <col min="8706" max="8706" width="13.625" style="21" customWidth="1"/>
-    <col min="8707" max="8707" width="15" style="21" customWidth="1"/>
-    <col min="8708" max="8708" width="14.5" style="21" customWidth="1"/>
-    <col min="8709" max="8709" width="14.25" style="21" customWidth="1"/>
-    <col min="8710" max="8960" width="11" style="21"/>
-    <col min="8961" max="8961" width="14.5" style="21" customWidth="1"/>
-    <col min="8962" max="8962" width="13.625" style="21" customWidth="1"/>
-    <col min="8963" max="8963" width="15" style="21" customWidth="1"/>
-    <col min="8964" max="8964" width="14.5" style="21" customWidth="1"/>
-    <col min="8965" max="8965" width="14.25" style="21" customWidth="1"/>
-    <col min="8966" max="9216" width="11" style="21"/>
-    <col min="9217" max="9217" width="14.5" style="21" customWidth="1"/>
-    <col min="9218" max="9218" width="13.625" style="21" customWidth="1"/>
-    <col min="9219" max="9219" width="15" style="21" customWidth="1"/>
-    <col min="9220" max="9220" width="14.5" style="21" customWidth="1"/>
-    <col min="9221" max="9221" width="14.25" style="21" customWidth="1"/>
-    <col min="9222" max="9472" width="11" style="21"/>
-    <col min="9473" max="9473" width="14.5" style="21" customWidth="1"/>
-    <col min="9474" max="9474" width="13.625" style="21" customWidth="1"/>
-    <col min="9475" max="9475" width="15" style="21" customWidth="1"/>
-    <col min="9476" max="9476" width="14.5" style="21" customWidth="1"/>
-    <col min="9477" max="9477" width="14.25" style="21" customWidth="1"/>
-    <col min="9478" max="9728" width="11" style="21"/>
-    <col min="9729" max="9729" width="14.5" style="21" customWidth="1"/>
-    <col min="9730" max="9730" width="13.625" style="21" customWidth="1"/>
-    <col min="9731" max="9731" width="15" style="21" customWidth="1"/>
-    <col min="9732" max="9732" width="14.5" style="21" customWidth="1"/>
-    <col min="9733" max="9733" width="14.25" style="21" customWidth="1"/>
-    <col min="9734" max="9984" width="11" style="21"/>
-    <col min="9985" max="9985" width="14.5" style="21" customWidth="1"/>
-    <col min="9986" max="9986" width="13.625" style="21" customWidth="1"/>
-    <col min="9987" max="9987" width="15" style="21" customWidth="1"/>
-    <col min="9988" max="9988" width="14.5" style="21" customWidth="1"/>
-    <col min="9989" max="9989" width="14.25" style="21" customWidth="1"/>
-    <col min="9990" max="10240" width="11" style="21"/>
-    <col min="10241" max="10241" width="14.5" style="21" customWidth="1"/>
-    <col min="10242" max="10242" width="13.625" style="21" customWidth="1"/>
-    <col min="10243" max="10243" width="15" style="21" customWidth="1"/>
-    <col min="10244" max="10244" width="14.5" style="21" customWidth="1"/>
-    <col min="10245" max="10245" width="14.25" style="21" customWidth="1"/>
-    <col min="10246" max="10496" width="11" style="21"/>
-    <col min="10497" max="10497" width="14.5" style="21" customWidth="1"/>
-    <col min="10498" max="10498" width="13.625" style="21" customWidth="1"/>
-    <col min="10499" max="10499" width="15" style="21" customWidth="1"/>
-    <col min="10500" max="10500" width="14.5" style="21" customWidth="1"/>
-    <col min="10501" max="10501" width="14.25" style="21" customWidth="1"/>
-    <col min="10502" max="10752" width="11" style="21"/>
-    <col min="10753" max="10753" width="14.5" style="21" customWidth="1"/>
-    <col min="10754" max="10754" width="13.625" style="21" customWidth="1"/>
-    <col min="10755" max="10755" width="15" style="21" customWidth="1"/>
-    <col min="10756" max="10756" width="14.5" style="21" customWidth="1"/>
-    <col min="10757" max="10757" width="14.25" style="21" customWidth="1"/>
-    <col min="10758" max="11008" width="11" style="21"/>
-    <col min="11009" max="11009" width="14.5" style="21" customWidth="1"/>
-    <col min="11010" max="11010" width="13.625" style="21" customWidth="1"/>
-    <col min="11011" max="11011" width="15" style="21" customWidth="1"/>
-    <col min="11012" max="11012" width="14.5" style="21" customWidth="1"/>
-    <col min="11013" max="11013" width="14.25" style="21" customWidth="1"/>
-    <col min="11014" max="11264" width="11" style="21"/>
-    <col min="11265" max="11265" width="14.5" style="21" customWidth="1"/>
-    <col min="11266" max="11266" width="13.625" style="21" customWidth="1"/>
-    <col min="11267" max="11267" width="15" style="21" customWidth="1"/>
-    <col min="11268" max="11268" width="14.5" style="21" customWidth="1"/>
-    <col min="11269" max="11269" width="14.25" style="21" customWidth="1"/>
-    <col min="11270" max="11520" width="11" style="21"/>
-    <col min="11521" max="11521" width="14.5" style="21" customWidth="1"/>
-    <col min="11522" max="11522" width="13.625" style="21" customWidth="1"/>
-    <col min="11523" max="11523" width="15" style="21" customWidth="1"/>
-    <col min="11524" max="11524" width="14.5" style="21" customWidth="1"/>
-    <col min="11525" max="11525" width="14.25" style="21" customWidth="1"/>
-    <col min="11526" max="11776" width="11" style="21"/>
-    <col min="11777" max="11777" width="14.5" style="21" customWidth="1"/>
-    <col min="11778" max="11778" width="13.625" style="21" customWidth="1"/>
-    <col min="11779" max="11779" width="15" style="21" customWidth="1"/>
-    <col min="11780" max="11780" width="14.5" style="21" customWidth="1"/>
-    <col min="11781" max="11781" width="14.25" style="21" customWidth="1"/>
-    <col min="11782" max="12032" width="11" style="21"/>
-    <col min="12033" max="12033" width="14.5" style="21" customWidth="1"/>
-    <col min="12034" max="12034" width="13.625" style="21" customWidth="1"/>
-    <col min="12035" max="12035" width="15" style="21" customWidth="1"/>
-    <col min="12036" max="12036" width="14.5" style="21" customWidth="1"/>
-    <col min="12037" max="12037" width="14.25" style="21" customWidth="1"/>
-    <col min="12038" max="12288" width="11" style="21"/>
-    <col min="12289" max="12289" width="14.5" style="21" customWidth="1"/>
-    <col min="12290" max="12290" width="13.625" style="21" customWidth="1"/>
-    <col min="12291" max="12291" width="15" style="21" customWidth="1"/>
-    <col min="12292" max="12292" width="14.5" style="21" customWidth="1"/>
-    <col min="12293" max="12293" width="14.25" style="21" customWidth="1"/>
-    <col min="12294" max="12544" width="11" style="21"/>
-    <col min="12545" max="12545" width="14.5" style="21" customWidth="1"/>
-    <col min="12546" max="12546" width="13.625" style="21" customWidth="1"/>
-    <col min="12547" max="12547" width="15" style="21" customWidth="1"/>
-    <col min="12548" max="12548" width="14.5" style="21" customWidth="1"/>
-    <col min="12549" max="12549" width="14.25" style="21" customWidth="1"/>
-    <col min="12550" max="12800" width="11" style="21"/>
-    <col min="12801" max="12801" width="14.5" style="21" customWidth="1"/>
-    <col min="12802" max="12802" width="13.625" style="21" customWidth="1"/>
-    <col min="12803" max="12803" width="15" style="21" customWidth="1"/>
-    <col min="12804" max="12804" width="14.5" style="21" customWidth="1"/>
-    <col min="12805" max="12805" width="14.25" style="21" customWidth="1"/>
-    <col min="12806" max="13056" width="11" style="21"/>
-    <col min="13057" max="13057" width="14.5" style="21" customWidth="1"/>
-    <col min="13058" max="13058" width="13.625" style="21" customWidth="1"/>
-    <col min="13059" max="13059" width="15" style="21" customWidth="1"/>
-    <col min="13060" max="13060" width="14.5" style="21" customWidth="1"/>
-    <col min="13061" max="13061" width="14.25" style="21" customWidth="1"/>
-    <col min="13062" max="13312" width="11" style="21"/>
-    <col min="13313" max="13313" width="14.5" style="21" customWidth="1"/>
-    <col min="13314" max="13314" width="13.625" style="21" customWidth="1"/>
-    <col min="13315" max="13315" width="15" style="21" customWidth="1"/>
-    <col min="13316" max="13316" width="14.5" style="21" customWidth="1"/>
-    <col min="13317" max="13317" width="14.25" style="21" customWidth="1"/>
-    <col min="13318" max="13568" width="11" style="21"/>
-    <col min="13569" max="13569" width="14.5" style="21" customWidth="1"/>
-    <col min="13570" max="13570" width="13.625" style="21" customWidth="1"/>
-    <col min="13571" max="13571" width="15" style="21" customWidth="1"/>
-    <col min="13572" max="13572" width="14.5" style="21" customWidth="1"/>
-    <col min="13573" max="13573" width="14.25" style="21" customWidth="1"/>
-    <col min="13574" max="13824" width="11" style="21"/>
-    <col min="13825" max="13825" width="14.5" style="21" customWidth="1"/>
-    <col min="13826" max="13826" width="13.625" style="21" customWidth="1"/>
-    <col min="13827" max="13827" width="15" style="21" customWidth="1"/>
-    <col min="13828" max="13828" width="14.5" style="21" customWidth="1"/>
-    <col min="13829" max="13829" width="14.25" style="21" customWidth="1"/>
-    <col min="13830" max="14080" width="11" style="21"/>
-    <col min="14081" max="14081" width="14.5" style="21" customWidth="1"/>
-    <col min="14082" max="14082" width="13.625" style="21" customWidth="1"/>
-    <col min="14083" max="14083" width="15" style="21" customWidth="1"/>
-    <col min="14084" max="14084" width="14.5" style="21" customWidth="1"/>
-    <col min="14085" max="14085" width="14.25" style="21" customWidth="1"/>
-    <col min="14086" max="14336" width="11" style="21"/>
-    <col min="14337" max="14337" width="14.5" style="21" customWidth="1"/>
-    <col min="14338" max="14338" width="13.625" style="21" customWidth="1"/>
-    <col min="14339" max="14339" width="15" style="21" customWidth="1"/>
-    <col min="14340" max="14340" width="14.5" style="21" customWidth="1"/>
-    <col min="14341" max="14341" width="14.25" style="21" customWidth="1"/>
-    <col min="14342" max="14592" width="11" style="21"/>
-    <col min="14593" max="14593" width="14.5" style="21" customWidth="1"/>
-    <col min="14594" max="14594" width="13.625" style="21" customWidth="1"/>
-    <col min="14595" max="14595" width="15" style="21" customWidth="1"/>
-    <col min="14596" max="14596" width="14.5" style="21" customWidth="1"/>
-    <col min="14597" max="14597" width="14.25" style="21" customWidth="1"/>
-    <col min="14598" max="14848" width="11" style="21"/>
-    <col min="14849" max="14849" width="14.5" style="21" customWidth="1"/>
-    <col min="14850" max="14850" width="13.625" style="21" customWidth="1"/>
-    <col min="14851" max="14851" width="15" style="21" customWidth="1"/>
-    <col min="14852" max="14852" width="14.5" style="21" customWidth="1"/>
-    <col min="14853" max="14853" width="14.25" style="21" customWidth="1"/>
-    <col min="14854" max="15104" width="11" style="21"/>
-    <col min="15105" max="15105" width="14.5" style="21" customWidth="1"/>
-    <col min="15106" max="15106" width="13.625" style="21" customWidth="1"/>
-    <col min="15107" max="15107" width="15" style="21" customWidth="1"/>
-    <col min="15108" max="15108" width="14.5" style="21" customWidth="1"/>
-    <col min="15109" max="15109" width="14.25" style="21" customWidth="1"/>
-    <col min="15110" max="15360" width="11" style="21"/>
-    <col min="15361" max="15361" width="14.5" style="21" customWidth="1"/>
-    <col min="15362" max="15362" width="13.625" style="21" customWidth="1"/>
-    <col min="15363" max="15363" width="15" style="21" customWidth="1"/>
-    <col min="15364" max="15364" width="14.5" style="21" customWidth="1"/>
-    <col min="15365" max="15365" width="14.25" style="21" customWidth="1"/>
-    <col min="15366" max="15616" width="11" style="21"/>
-    <col min="15617" max="15617" width="14.5" style="21" customWidth="1"/>
-    <col min="15618" max="15618" width="13.625" style="21" customWidth="1"/>
-    <col min="15619" max="15619" width="15" style="21" customWidth="1"/>
-    <col min="15620" max="15620" width="14.5" style="21" customWidth="1"/>
-    <col min="15621" max="15621" width="14.25" style="21" customWidth="1"/>
-    <col min="15622" max="15872" width="11" style="21"/>
-    <col min="15873" max="15873" width="14.5" style="21" customWidth="1"/>
-    <col min="15874" max="15874" width="13.625" style="21" customWidth="1"/>
-    <col min="15875" max="15875" width="15" style="21" customWidth="1"/>
-    <col min="15876" max="15876" width="14.5" style="21" customWidth="1"/>
-    <col min="15877" max="15877" width="14.25" style="21" customWidth="1"/>
-    <col min="15878" max="16128" width="11" style="21"/>
-    <col min="16129" max="16129" width="14.5" style="21" customWidth="1"/>
-    <col min="16130" max="16130" width="13.625" style="21" customWidth="1"/>
-    <col min="16131" max="16131" width="15" style="21" customWidth="1"/>
-    <col min="16132" max="16132" width="14.5" style="21" customWidth="1"/>
-    <col min="16133" max="16133" width="14.25" style="21" customWidth="1"/>
-    <col min="16134" max="16383" width="11" style="21"/>
+    <col min="1" max="1" width="13.125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="16.375" style="19" customWidth="1"/>
+    <col min="3" max="3" width="32.625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="19" customWidth="1"/>
+    <col min="5" max="5" width="14" style="19" customWidth="1"/>
+    <col min="6" max="256" width="11" style="19"/>
+    <col min="257" max="257" width="14.5" style="19" customWidth="1"/>
+    <col min="258" max="258" width="13.625" style="19" customWidth="1"/>
+    <col min="259" max="259" width="15" style="19" customWidth="1"/>
+    <col min="260" max="260" width="14.5" style="19" customWidth="1"/>
+    <col min="261" max="261" width="14.25" style="19" customWidth="1"/>
+    <col min="262" max="512" width="11" style="19"/>
+    <col min="513" max="513" width="14.5" style="19" customWidth="1"/>
+    <col min="514" max="514" width="13.625" style="19" customWidth="1"/>
+    <col min="515" max="515" width="15" style="19" customWidth="1"/>
+    <col min="516" max="516" width="14.5" style="19" customWidth="1"/>
+    <col min="517" max="517" width="14.25" style="19" customWidth="1"/>
+    <col min="518" max="768" width="11" style="19"/>
+    <col min="769" max="769" width="14.5" style="19" customWidth="1"/>
+    <col min="770" max="770" width="13.625" style="19" customWidth="1"/>
+    <col min="771" max="771" width="15" style="19" customWidth="1"/>
+    <col min="772" max="772" width="14.5" style="19" customWidth="1"/>
+    <col min="773" max="773" width="14.25" style="19" customWidth="1"/>
+    <col min="774" max="1024" width="11" style="19"/>
+    <col min="1025" max="1025" width="14.5" style="19" customWidth="1"/>
+    <col min="1026" max="1026" width="13.625" style="19" customWidth="1"/>
+    <col min="1027" max="1027" width="15" style="19" customWidth="1"/>
+    <col min="1028" max="1028" width="14.5" style="19" customWidth="1"/>
+    <col min="1029" max="1029" width="14.25" style="19" customWidth="1"/>
+    <col min="1030" max="1280" width="11" style="19"/>
+    <col min="1281" max="1281" width="14.5" style="19" customWidth="1"/>
+    <col min="1282" max="1282" width="13.625" style="19" customWidth="1"/>
+    <col min="1283" max="1283" width="15" style="19" customWidth="1"/>
+    <col min="1284" max="1284" width="14.5" style="19" customWidth="1"/>
+    <col min="1285" max="1285" width="14.25" style="19" customWidth="1"/>
+    <col min="1286" max="1536" width="11" style="19"/>
+    <col min="1537" max="1537" width="14.5" style="19" customWidth="1"/>
+    <col min="1538" max="1538" width="13.625" style="19" customWidth="1"/>
+    <col min="1539" max="1539" width="15" style="19" customWidth="1"/>
+    <col min="1540" max="1540" width="14.5" style="19" customWidth="1"/>
+    <col min="1541" max="1541" width="14.25" style="19" customWidth="1"/>
+    <col min="1542" max="1792" width="11" style="19"/>
+    <col min="1793" max="1793" width="14.5" style="19" customWidth="1"/>
+    <col min="1794" max="1794" width="13.625" style="19" customWidth="1"/>
+    <col min="1795" max="1795" width="15" style="19" customWidth="1"/>
+    <col min="1796" max="1796" width="14.5" style="19" customWidth="1"/>
+    <col min="1797" max="1797" width="14.25" style="19" customWidth="1"/>
+    <col min="1798" max="2048" width="11" style="19"/>
+    <col min="2049" max="2049" width="14.5" style="19" customWidth="1"/>
+    <col min="2050" max="2050" width="13.625" style="19" customWidth="1"/>
+    <col min="2051" max="2051" width="15" style="19" customWidth="1"/>
+    <col min="2052" max="2052" width="14.5" style="19" customWidth="1"/>
+    <col min="2053" max="2053" width="14.25" style="19" customWidth="1"/>
+    <col min="2054" max="2304" width="11" style="19"/>
+    <col min="2305" max="2305" width="14.5" style="19" customWidth="1"/>
+    <col min="2306" max="2306" width="13.625" style="19" customWidth="1"/>
+    <col min="2307" max="2307" width="15" style="19" customWidth="1"/>
+    <col min="2308" max="2308" width="14.5" style="19" customWidth="1"/>
+    <col min="2309" max="2309" width="14.25" style="19" customWidth="1"/>
+    <col min="2310" max="2560" width="11" style="19"/>
+    <col min="2561" max="2561" width="14.5" style="19" customWidth="1"/>
+    <col min="2562" max="2562" width="13.625" style="19" customWidth="1"/>
+    <col min="2563" max="2563" width="15" style="19" customWidth="1"/>
+    <col min="2564" max="2564" width="14.5" style="19" customWidth="1"/>
+    <col min="2565" max="2565" width="14.25" style="19" customWidth="1"/>
+    <col min="2566" max="2816" width="11" style="19"/>
+    <col min="2817" max="2817" width="14.5" style="19" customWidth="1"/>
+    <col min="2818" max="2818" width="13.625" style="19" customWidth="1"/>
+    <col min="2819" max="2819" width="15" style="19" customWidth="1"/>
+    <col min="2820" max="2820" width="14.5" style="19" customWidth="1"/>
+    <col min="2821" max="2821" width="14.25" style="19" customWidth="1"/>
+    <col min="2822" max="3072" width="11" style="19"/>
+    <col min="3073" max="3073" width="14.5" style="19" customWidth="1"/>
+    <col min="3074" max="3074" width="13.625" style="19" customWidth="1"/>
+    <col min="3075" max="3075" width="15" style="19" customWidth="1"/>
+    <col min="3076" max="3076" width="14.5" style="19" customWidth="1"/>
+    <col min="3077" max="3077" width="14.25" style="19" customWidth="1"/>
+    <col min="3078" max="3328" width="11" style="19"/>
+    <col min="3329" max="3329" width="14.5" style="19" customWidth="1"/>
+    <col min="3330" max="3330" width="13.625" style="19" customWidth="1"/>
+    <col min="3331" max="3331" width="15" style="19" customWidth="1"/>
+    <col min="3332" max="3332" width="14.5" style="19" customWidth="1"/>
+    <col min="3333" max="3333" width="14.25" style="19" customWidth="1"/>
+    <col min="3334" max="3584" width="11" style="19"/>
+    <col min="3585" max="3585" width="14.5" style="19" customWidth="1"/>
+    <col min="3586" max="3586" width="13.625" style="19" customWidth="1"/>
+    <col min="3587" max="3587" width="15" style="19" customWidth="1"/>
+    <col min="3588" max="3588" width="14.5" style="19" customWidth="1"/>
+    <col min="3589" max="3589" width="14.25" style="19" customWidth="1"/>
+    <col min="3590" max="3840" width="11" style="19"/>
+    <col min="3841" max="3841" width="14.5" style="19" customWidth="1"/>
+    <col min="3842" max="3842" width="13.625" style="19" customWidth="1"/>
+    <col min="3843" max="3843" width="15" style="19" customWidth="1"/>
+    <col min="3844" max="3844" width="14.5" style="19" customWidth="1"/>
+    <col min="3845" max="3845" width="14.25" style="19" customWidth="1"/>
+    <col min="3846" max="4096" width="11" style="19"/>
+    <col min="4097" max="4097" width="14.5" style="19" customWidth="1"/>
+    <col min="4098" max="4098" width="13.625" style="19" customWidth="1"/>
+    <col min="4099" max="4099" width="15" style="19" customWidth="1"/>
+    <col min="4100" max="4100" width="14.5" style="19" customWidth="1"/>
+    <col min="4101" max="4101" width="14.25" style="19" customWidth="1"/>
+    <col min="4102" max="4352" width="11" style="19"/>
+    <col min="4353" max="4353" width="14.5" style="19" customWidth="1"/>
+    <col min="4354" max="4354" width="13.625" style="19" customWidth="1"/>
+    <col min="4355" max="4355" width="15" style="19" customWidth="1"/>
+    <col min="4356" max="4356" width="14.5" style="19" customWidth="1"/>
+    <col min="4357" max="4357" width="14.25" style="19" customWidth="1"/>
+    <col min="4358" max="4608" width="11" style="19"/>
+    <col min="4609" max="4609" width="14.5" style="19" customWidth="1"/>
+    <col min="4610" max="4610" width="13.625" style="19" customWidth="1"/>
+    <col min="4611" max="4611" width="15" style="19" customWidth="1"/>
+    <col min="4612" max="4612" width="14.5" style="19" customWidth="1"/>
+    <col min="4613" max="4613" width="14.25" style="19" customWidth="1"/>
+    <col min="4614" max="4864" width="11" style="19"/>
+    <col min="4865" max="4865" width="14.5" style="19" customWidth="1"/>
+    <col min="4866" max="4866" width="13.625" style="19" customWidth="1"/>
+    <col min="4867" max="4867" width="15" style="19" customWidth="1"/>
+    <col min="4868" max="4868" width="14.5" style="19" customWidth="1"/>
+    <col min="4869" max="4869" width="14.25" style="19" customWidth="1"/>
+    <col min="4870" max="5120" width="11" style="19"/>
+    <col min="5121" max="5121" width="14.5" style="19" customWidth="1"/>
+    <col min="5122" max="5122" width="13.625" style="19" customWidth="1"/>
+    <col min="5123" max="5123" width="15" style="19" customWidth="1"/>
+    <col min="5124" max="5124" width="14.5" style="19" customWidth="1"/>
+    <col min="5125" max="5125" width="14.25" style="19" customWidth="1"/>
+    <col min="5126" max="5376" width="11" style="19"/>
+    <col min="5377" max="5377" width="14.5" style="19" customWidth="1"/>
+    <col min="5378" max="5378" width="13.625" style="19" customWidth="1"/>
+    <col min="5379" max="5379" width="15" style="19" customWidth="1"/>
+    <col min="5380" max="5380" width="14.5" style="19" customWidth="1"/>
+    <col min="5381" max="5381" width="14.25" style="19" customWidth="1"/>
+    <col min="5382" max="5632" width="11" style="19"/>
+    <col min="5633" max="5633" width="14.5" style="19" customWidth="1"/>
+    <col min="5634" max="5634" width="13.625" style="19" customWidth="1"/>
+    <col min="5635" max="5635" width="15" style="19" customWidth="1"/>
+    <col min="5636" max="5636" width="14.5" style="19" customWidth="1"/>
+    <col min="5637" max="5637" width="14.25" style="19" customWidth="1"/>
+    <col min="5638" max="5888" width="11" style="19"/>
+    <col min="5889" max="5889" width="14.5" style="19" customWidth="1"/>
+    <col min="5890" max="5890" width="13.625" style="19" customWidth="1"/>
+    <col min="5891" max="5891" width="15" style="19" customWidth="1"/>
+    <col min="5892" max="5892" width="14.5" style="19" customWidth="1"/>
+    <col min="5893" max="5893" width="14.25" style="19" customWidth="1"/>
+    <col min="5894" max="6144" width="11" style="19"/>
+    <col min="6145" max="6145" width="14.5" style="19" customWidth="1"/>
+    <col min="6146" max="6146" width="13.625" style="19" customWidth="1"/>
+    <col min="6147" max="6147" width="15" style="19" customWidth="1"/>
+    <col min="6148" max="6148" width="14.5" style="19" customWidth="1"/>
+    <col min="6149" max="6149" width="14.25" style="19" customWidth="1"/>
+    <col min="6150" max="6400" width="11" style="19"/>
+    <col min="6401" max="6401" width="14.5" style="19" customWidth="1"/>
+    <col min="6402" max="6402" width="13.625" style="19" customWidth="1"/>
+    <col min="6403" max="6403" width="15" style="19" customWidth="1"/>
+    <col min="6404" max="6404" width="14.5" style="19" customWidth="1"/>
+    <col min="6405" max="6405" width="14.25" style="19" customWidth="1"/>
+    <col min="6406" max="6656" width="11" style="19"/>
+    <col min="6657" max="6657" width="14.5" style="19" customWidth="1"/>
+    <col min="6658" max="6658" width="13.625" style="19" customWidth="1"/>
+    <col min="6659" max="6659" width="15" style="19" customWidth="1"/>
+    <col min="6660" max="6660" width="14.5" style="19" customWidth="1"/>
+    <col min="6661" max="6661" width="14.25" style="19" customWidth="1"/>
+    <col min="6662" max="6912" width="11" style="19"/>
+    <col min="6913" max="6913" width="14.5" style="19" customWidth="1"/>
+    <col min="6914" max="6914" width="13.625" style="19" customWidth="1"/>
+    <col min="6915" max="6915" width="15" style="19" customWidth="1"/>
+    <col min="6916" max="6916" width="14.5" style="19" customWidth="1"/>
+    <col min="6917" max="6917" width="14.25" style="19" customWidth="1"/>
+    <col min="6918" max="7168" width="11" style="19"/>
+    <col min="7169" max="7169" width="14.5" style="19" customWidth="1"/>
+    <col min="7170" max="7170" width="13.625" style="19" customWidth="1"/>
+    <col min="7171" max="7171" width="15" style="19" customWidth="1"/>
+    <col min="7172" max="7172" width="14.5" style="19" customWidth="1"/>
+    <col min="7173" max="7173" width="14.25" style="19" customWidth="1"/>
+    <col min="7174" max="7424" width="11" style="19"/>
+    <col min="7425" max="7425" width="14.5" style="19" customWidth="1"/>
+    <col min="7426" max="7426" width="13.625" style="19" customWidth="1"/>
+    <col min="7427" max="7427" width="15" style="19" customWidth="1"/>
+    <col min="7428" max="7428" width="14.5" style="19" customWidth="1"/>
+    <col min="7429" max="7429" width="14.25" style="19" customWidth="1"/>
+    <col min="7430" max="7680" width="11" style="19"/>
+    <col min="7681" max="7681" width="14.5" style="19" customWidth="1"/>
+    <col min="7682" max="7682" width="13.625" style="19" customWidth="1"/>
+    <col min="7683" max="7683" width="15" style="19" customWidth="1"/>
+    <col min="7684" max="7684" width="14.5" style="19" customWidth="1"/>
+    <col min="7685" max="7685" width="14.25" style="19" customWidth="1"/>
+    <col min="7686" max="7936" width="11" style="19"/>
+    <col min="7937" max="7937" width="14.5" style="19" customWidth="1"/>
+    <col min="7938" max="7938" width="13.625" style="19" customWidth="1"/>
+    <col min="7939" max="7939" width="15" style="19" customWidth="1"/>
+    <col min="7940" max="7940" width="14.5" style="19" customWidth="1"/>
+    <col min="7941" max="7941" width="14.25" style="19" customWidth="1"/>
+    <col min="7942" max="8192" width="11" style="19"/>
+    <col min="8193" max="8193" width="14.5" style="19" customWidth="1"/>
+    <col min="8194" max="8194" width="13.625" style="19" customWidth="1"/>
+    <col min="8195" max="8195" width="15" style="19" customWidth="1"/>
+    <col min="8196" max="8196" width="14.5" style="19" customWidth="1"/>
+    <col min="8197" max="8197" width="14.25" style="19" customWidth="1"/>
+    <col min="8198" max="8448" width="11" style="19"/>
+    <col min="8449" max="8449" width="14.5" style="19" customWidth="1"/>
+    <col min="8450" max="8450" width="13.625" style="19" customWidth="1"/>
+    <col min="8451" max="8451" width="15" style="19" customWidth="1"/>
+    <col min="8452" max="8452" width="14.5" style="19" customWidth="1"/>
+    <col min="8453" max="8453" width="14.25" style="19" customWidth="1"/>
+    <col min="8454" max="8704" width="11" style="19"/>
+    <col min="8705" max="8705" width="14.5" style="19" customWidth="1"/>
+    <col min="8706" max="8706" width="13.625" style="19" customWidth="1"/>
+    <col min="8707" max="8707" width="15" style="19" customWidth="1"/>
+    <col min="8708" max="8708" width="14.5" style="19" customWidth="1"/>
+    <col min="8709" max="8709" width="14.25" style="19" customWidth="1"/>
+    <col min="8710" max="8960" width="11" style="19"/>
+    <col min="8961" max="8961" width="14.5" style="19" customWidth="1"/>
+    <col min="8962" max="8962" width="13.625" style="19" customWidth="1"/>
+    <col min="8963" max="8963" width="15" style="19" customWidth="1"/>
+    <col min="8964" max="8964" width="14.5" style="19" customWidth="1"/>
+    <col min="8965" max="8965" width="14.25" style="19" customWidth="1"/>
+    <col min="8966" max="9216" width="11" style="19"/>
+    <col min="9217" max="9217" width="14.5" style="19" customWidth="1"/>
+    <col min="9218" max="9218" width="13.625" style="19" customWidth="1"/>
+    <col min="9219" max="9219" width="15" style="19" customWidth="1"/>
+    <col min="9220" max="9220" width="14.5" style="19" customWidth="1"/>
+    <col min="9221" max="9221" width="14.25" style="19" customWidth="1"/>
+    <col min="9222" max="9472" width="11" style="19"/>
+    <col min="9473" max="9473" width="14.5" style="19" customWidth="1"/>
+    <col min="9474" max="9474" width="13.625" style="19" customWidth="1"/>
+    <col min="9475" max="9475" width="15" style="19" customWidth="1"/>
+    <col min="9476" max="9476" width="14.5" style="19" customWidth="1"/>
+    <col min="9477" max="9477" width="14.25" style="19" customWidth="1"/>
+    <col min="9478" max="9728" width="11" style="19"/>
+    <col min="9729" max="9729" width="14.5" style="19" customWidth="1"/>
+    <col min="9730" max="9730" width="13.625" style="19" customWidth="1"/>
+    <col min="9731" max="9731" width="15" style="19" customWidth="1"/>
+    <col min="9732" max="9732" width="14.5" style="19" customWidth="1"/>
+    <col min="9733" max="9733" width="14.25" style="19" customWidth="1"/>
+    <col min="9734" max="9984" width="11" style="19"/>
+    <col min="9985" max="9985" width="14.5" style="19" customWidth="1"/>
+    <col min="9986" max="9986" width="13.625" style="19" customWidth="1"/>
+    <col min="9987" max="9987" width="15" style="19" customWidth="1"/>
+    <col min="9988" max="9988" width="14.5" style="19" customWidth="1"/>
+    <col min="9989" max="9989" width="14.25" style="19" customWidth="1"/>
+    <col min="9990" max="10240" width="11" style="19"/>
+    <col min="10241" max="10241" width="14.5" style="19" customWidth="1"/>
+    <col min="10242" max="10242" width="13.625" style="19" customWidth="1"/>
+    <col min="10243" max="10243" width="15" style="19" customWidth="1"/>
+    <col min="10244" max="10244" width="14.5" style="19" customWidth="1"/>
+    <col min="10245" max="10245" width="14.25" style="19" customWidth="1"/>
+    <col min="10246" max="10496" width="11" style="19"/>
+    <col min="10497" max="10497" width="14.5" style="19" customWidth="1"/>
+    <col min="10498" max="10498" width="13.625" style="19" customWidth="1"/>
+    <col min="10499" max="10499" width="15" style="19" customWidth="1"/>
+    <col min="10500" max="10500" width="14.5" style="19" customWidth="1"/>
+    <col min="10501" max="10501" width="14.25" style="19" customWidth="1"/>
+    <col min="10502" max="10752" width="11" style="19"/>
+    <col min="10753" max="10753" width="14.5" style="19" customWidth="1"/>
+    <col min="10754" max="10754" width="13.625" style="19" customWidth="1"/>
+    <col min="10755" max="10755" width="15" style="19" customWidth="1"/>
+    <col min="10756" max="10756" width="14.5" style="19" customWidth="1"/>
+    <col min="10757" max="10757" width="14.25" style="19" customWidth="1"/>
+    <col min="10758" max="11008" width="11" style="19"/>
+    <col min="11009" max="11009" width="14.5" style="19" customWidth="1"/>
+    <col min="11010" max="11010" width="13.625" style="19" customWidth="1"/>
+    <col min="11011" max="11011" width="15" style="19" customWidth="1"/>
+    <col min="11012" max="11012" width="14.5" style="19" customWidth="1"/>
+    <col min="11013" max="11013" width="14.25" style="19" customWidth="1"/>
+    <col min="11014" max="11264" width="11" style="19"/>
+    <col min="11265" max="11265" width="14.5" style="19" customWidth="1"/>
+    <col min="11266" max="11266" width="13.625" style="19" customWidth="1"/>
+    <col min="11267" max="11267" width="15" style="19" customWidth="1"/>
+    <col min="11268" max="11268" width="14.5" style="19" customWidth="1"/>
+    <col min="11269" max="11269" width="14.25" style="19" customWidth="1"/>
+    <col min="11270" max="11520" width="11" style="19"/>
+    <col min="11521" max="11521" width="14.5" style="19" customWidth="1"/>
+    <col min="11522" max="11522" width="13.625" style="19" customWidth="1"/>
+    <col min="11523" max="11523" width="15" style="19" customWidth="1"/>
+    <col min="11524" max="11524" width="14.5" style="19" customWidth="1"/>
+    <col min="11525" max="11525" width="14.25" style="19" customWidth="1"/>
+    <col min="11526" max="11776" width="11" style="19"/>
+    <col min="11777" max="11777" width="14.5" style="19" customWidth="1"/>
+    <col min="11778" max="11778" width="13.625" style="19" customWidth="1"/>
+    <col min="11779" max="11779" width="15" style="19" customWidth="1"/>
+    <col min="11780" max="11780" width="14.5" style="19" customWidth="1"/>
+    <col min="11781" max="11781" width="14.25" style="19" customWidth="1"/>
+    <col min="11782" max="12032" width="11" style="19"/>
+    <col min="12033" max="12033" width="14.5" style="19" customWidth="1"/>
+    <col min="12034" max="12034" width="13.625" style="19" customWidth="1"/>
+    <col min="12035" max="12035" width="15" style="19" customWidth="1"/>
+    <col min="12036" max="12036" width="14.5" style="19" customWidth="1"/>
+    <col min="12037" max="12037" width="14.25" style="19" customWidth="1"/>
+    <col min="12038" max="12288" width="11" style="19"/>
+    <col min="12289" max="12289" width="14.5" style="19" customWidth="1"/>
+    <col min="12290" max="12290" width="13.625" style="19" customWidth="1"/>
+    <col min="12291" max="12291" width="15" style="19" customWidth="1"/>
+    <col min="12292" max="12292" width="14.5" style="19" customWidth="1"/>
+    <col min="12293" max="12293" width="14.25" style="19" customWidth="1"/>
+    <col min="12294" max="12544" width="11" style="19"/>
+    <col min="12545" max="12545" width="14.5" style="19" customWidth="1"/>
+    <col min="12546" max="12546" width="13.625" style="19" customWidth="1"/>
+    <col min="12547" max="12547" width="15" style="19" customWidth="1"/>
+    <col min="12548" max="12548" width="14.5" style="19" customWidth="1"/>
+    <col min="12549" max="12549" width="14.25" style="19" customWidth="1"/>
+    <col min="12550" max="12800" width="11" style="19"/>
+    <col min="12801" max="12801" width="14.5" style="19" customWidth="1"/>
+    <col min="12802" max="12802" width="13.625" style="19" customWidth="1"/>
+    <col min="12803" max="12803" width="15" style="19" customWidth="1"/>
+    <col min="12804" max="12804" width="14.5" style="19" customWidth="1"/>
+    <col min="12805" max="12805" width="14.25" style="19" customWidth="1"/>
+    <col min="12806" max="13056" width="11" style="19"/>
+    <col min="13057" max="13057" width="14.5" style="19" customWidth="1"/>
+    <col min="13058" max="13058" width="13.625" style="19" customWidth="1"/>
+    <col min="13059" max="13059" width="15" style="19" customWidth="1"/>
+    <col min="13060" max="13060" width="14.5" style="19" customWidth="1"/>
+    <col min="13061" max="13061" width="14.25" style="19" customWidth="1"/>
+    <col min="13062" max="13312" width="11" style="19"/>
+    <col min="13313" max="13313" width="14.5" style="19" customWidth="1"/>
+    <col min="13314" max="13314" width="13.625" style="19" customWidth="1"/>
+    <col min="13315" max="13315" width="15" style="19" customWidth="1"/>
+    <col min="13316" max="13316" width="14.5" style="19" customWidth="1"/>
+    <col min="13317" max="13317" width="14.25" style="19" customWidth="1"/>
+    <col min="13318" max="13568" width="11" style="19"/>
+    <col min="13569" max="13569" width="14.5" style="19" customWidth="1"/>
+    <col min="13570" max="13570" width="13.625" style="19" customWidth="1"/>
+    <col min="13571" max="13571" width="15" style="19" customWidth="1"/>
+    <col min="13572" max="13572" width="14.5" style="19" customWidth="1"/>
+    <col min="13573" max="13573" width="14.25" style="19" customWidth="1"/>
+    <col min="13574" max="13824" width="11" style="19"/>
+    <col min="13825" max="13825" width="14.5" style="19" customWidth="1"/>
+    <col min="13826" max="13826" width="13.625" style="19" customWidth="1"/>
+    <col min="13827" max="13827" width="15" style="19" customWidth="1"/>
+    <col min="13828" max="13828" width="14.5" style="19" customWidth="1"/>
+    <col min="13829" max="13829" width="14.25" style="19" customWidth="1"/>
+    <col min="13830" max="14080" width="11" style="19"/>
+    <col min="14081" max="14081" width="14.5" style="19" customWidth="1"/>
+    <col min="14082" max="14082" width="13.625" style="19" customWidth="1"/>
+    <col min="14083" max="14083" width="15" style="19" customWidth="1"/>
+    <col min="14084" max="14084" width="14.5" style="19" customWidth="1"/>
+    <col min="14085" max="14085" width="14.25" style="19" customWidth="1"/>
+    <col min="14086" max="14336" width="11" style="19"/>
+    <col min="14337" max="14337" width="14.5" style="19" customWidth="1"/>
+    <col min="14338" max="14338" width="13.625" style="19" customWidth="1"/>
+    <col min="14339" max="14339" width="15" style="19" customWidth="1"/>
+    <col min="14340" max="14340" width="14.5" style="19" customWidth="1"/>
+    <col min="14341" max="14341" width="14.25" style="19" customWidth="1"/>
+    <col min="14342" max="14592" width="11" style="19"/>
+    <col min="14593" max="14593" width="14.5" style="19" customWidth="1"/>
+    <col min="14594" max="14594" width="13.625" style="19" customWidth="1"/>
+    <col min="14595" max="14595" width="15" style="19" customWidth="1"/>
+    <col min="14596" max="14596" width="14.5" style="19" customWidth="1"/>
+    <col min="14597" max="14597" width="14.25" style="19" customWidth="1"/>
+    <col min="14598" max="14848" width="11" style="19"/>
+    <col min="14849" max="14849" width="14.5" style="19" customWidth="1"/>
+    <col min="14850" max="14850" width="13.625" style="19" customWidth="1"/>
+    <col min="14851" max="14851" width="15" style="19" customWidth="1"/>
+    <col min="14852" max="14852" width="14.5" style="19" customWidth="1"/>
+    <col min="14853" max="14853" width="14.25" style="19" customWidth="1"/>
+    <col min="14854" max="15104" width="11" style="19"/>
+    <col min="15105" max="15105" width="14.5" style="19" customWidth="1"/>
+    <col min="15106" max="15106" width="13.625" style="19" customWidth="1"/>
+    <col min="15107" max="15107" width="15" style="19" customWidth="1"/>
+    <col min="15108" max="15108" width="14.5" style="19" customWidth="1"/>
+    <col min="15109" max="15109" width="14.25" style="19" customWidth="1"/>
+    <col min="15110" max="15360" width="11" style="19"/>
+    <col min="15361" max="15361" width="14.5" style="19" customWidth="1"/>
+    <col min="15362" max="15362" width="13.625" style="19" customWidth="1"/>
+    <col min="15363" max="15363" width="15" style="19" customWidth="1"/>
+    <col min="15364" max="15364" width="14.5" style="19" customWidth="1"/>
+    <col min="15365" max="15365" width="14.25" style="19" customWidth="1"/>
+    <col min="15366" max="15616" width="11" style="19"/>
+    <col min="15617" max="15617" width="14.5" style="19" customWidth="1"/>
+    <col min="15618" max="15618" width="13.625" style="19" customWidth="1"/>
+    <col min="15619" max="15619" width="15" style="19" customWidth="1"/>
+    <col min="15620" max="15620" width="14.5" style="19" customWidth="1"/>
+    <col min="15621" max="15621" width="14.25" style="19" customWidth="1"/>
+    <col min="15622" max="15872" width="11" style="19"/>
+    <col min="15873" max="15873" width="14.5" style="19" customWidth="1"/>
+    <col min="15874" max="15874" width="13.625" style="19" customWidth="1"/>
+    <col min="15875" max="15875" width="15" style="19" customWidth="1"/>
+    <col min="15876" max="15876" width="14.5" style="19" customWidth="1"/>
+    <col min="15877" max="15877" width="14.25" style="19" customWidth="1"/>
+    <col min="15878" max="16128" width="11" style="19"/>
+    <col min="16129" max="16129" width="14.5" style="19" customWidth="1"/>
+    <col min="16130" max="16130" width="13.625" style="19" customWidth="1"/>
+    <col min="16131" max="16131" width="15" style="19" customWidth="1"/>
+    <col min="16132" max="16132" width="14.5" style="19" customWidth="1"/>
+    <col min="16133" max="16133" width="14.25" style="19" customWidth="1"/>
+    <col min="16134" max="16383" width="11" style="19"/>
     <col min="16384" max="16384" width="11"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
     </row>
     <row r="3" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+    </row>
+    <row r="4" ht="15" spans="1:5">
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
     </row>
     <row r="5" ht="18" spans="1:5">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="24" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" ht="17.25" spans="1:7">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="26">
         <v>44661</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="31"/>
-      <c r="G6" s="32"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="30"/>
     </row>
     <row r="7" ht="17.25" spans="1:7">
-      <c r="A7" s="27"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="32"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="30"/>
     </row>
     <row r="8" ht="17.25" spans="1:5">
-      <c r="A8" s="27"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="30"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="28"/>
     </row>
     <row r="9" ht="17.25" spans="1:5">
-      <c r="A9" s="27"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="30"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="28"/>
     </row>
     <row r="10" ht="17.25" spans="1:5">
-      <c r="A10" s="27"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="30"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="28"/>
     </row>
     <row r="11" ht="17.25" spans="1:5">
-      <c r="A11" s="27"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="30"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="28"/>
     </row>
     <row r="12" ht="17.25" spans="1:5">
-      <c r="A12" s="27"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="30"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="28"/>
     </row>
     <row r="13" ht="17.25" spans="1:5">
-      <c r="A13" s="27"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="30"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="28"/>
     </row>
     <row r="14" ht="17.25" spans="1:5">
-      <c r="A14" s="27"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="30"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="28"/>
     </row>
     <row r="15" ht="17.25" spans="1:5">
-      <c r="A15" s="27"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="30"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="28"/>
     </row>
     <row r="16" ht="17.25" spans="1:5">
-      <c r="A16" s="27"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="30"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="28"/>
     </row>
     <row r="17" ht="17.25" spans="1:5">
-      <c r="A17" s="27"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="30"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="28"/>
     </row>
     <row r="18" ht="17.25" spans="1:5">
-      <c r="A18" s="27"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="30"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="28"/>
     </row>
     <row r="19" ht="17.25" spans="1:5">
-      <c r="A19" s="27"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="30"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="28"/>
     </row>
     <row r="20" ht="17.25" spans="1:5">
-      <c r="A20" s="27"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="30"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="28"/>
     </row>
     <row r="21" ht="17.25" spans="1:5">
-      <c r="A21" s="27"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="30"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="28"/>
     </row>
     <row r="22" ht="17.25" spans="1:5">
-      <c r="A22" s="27"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="30"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="28"/>
     </row>
     <row r="23" ht="17.25" spans="1:5">
-      <c r="A23" s="27"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="30"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="28"/>
     </row>
     <row r="24" ht="17.25" spans="1:5">
-      <c r="A24" s="27"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="30"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="28"/>
     </row>
     <row r="25" ht="17.25" spans="1:5">
-      <c r="A25" s="27"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="30"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="28"/>
     </row>
     <row r="26" ht="17.25" spans="1:5">
-      <c r="A26" s="27"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="30"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="28"/>
     </row>
     <row r="27" ht="17.25" spans="1:5">
-      <c r="A27" s="27"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="30"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="28"/>
     </row>
     <row r="28" ht="17.25" spans="1:5">
-      <c r="A28" s="27"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="30"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="28"/>
     </row>
     <row r="29" ht="17.25" spans="1:5">
-      <c r="A29" s="27"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="30"/>
+      <c r="A29" s="25"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="28"/>
     </row>
     <row r="30" ht="17.25" spans="1:5">
-      <c r="A30" s="27"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="30"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="28"/>
     </row>
     <row r="31" ht="17.25" spans="1:5">
-      <c r="A31" s="27"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="30"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="28"/>
     </row>
     <row r="32" ht="17.25" spans="1:5">
-      <c r="A32" s="27"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="30"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="28"/>
     </row>
     <row r="33" ht="17.25" spans="1:5">
-      <c r="A33" s="27"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="30"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="28"/>
     </row>
     <row r="34" ht="17.25" spans="1:5">
-      <c r="A34" s="27"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="30"/>
+      <c r="A34" s="25"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="28"/>
     </row>
     <row r="35" ht="17.25" spans="1:5">
-      <c r="A35" s="27"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="30"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="28"/>
     </row>
     <row r="36" ht="17.25" spans="1:5">
-      <c r="A36" s="27"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="30"/>
+      <c r="A36" s="25"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="28"/>
     </row>
     <row r="37" ht="17.25" spans="1:5">
-      <c r="A37" s="27"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="30"/>
+      <c r="A37" s="25"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="28"/>
     </row>
     <row r="38" ht="17.25" spans="1:5">
-      <c r="A38" s="27"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="30"/>
+      <c r="A38" s="25"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="28"/>
     </row>
     <row r="39" ht="18" spans="1:5">
-      <c r="A39" s="34"/>
-      <c r="B39" s="35"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="36"/>
-    </row>
-    <row r="40" ht="17.25"/>
+      <c r="A39" s="32"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="34"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E4"/>
@@ -2708,13 +2608,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AE13"/>
+  <dimension ref="A1:AE6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="12.125" customWidth="1"/>
     <col min="2" max="2" width="6.09166666666667" customWidth="1"/>
@@ -2919,19 +2819,21 @@
       <c r="B5" s="14"/>
       <c r="C5" s="13"/>
       <c r="E5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="G5" s="14">
+        <v>18650617</v>
+      </c>
+      <c r="H5" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="16"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
       <c r="K5" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L5" s="14"/>
       <c r="M5"/>
@@ -2954,388 +2856,77 @@
       <c r="AD5"/>
       <c r="AE5"/>
     </row>
-    <row r="6" s="7" customFormat="1" ht="20" customHeight="1" spans="1:31">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="13"/>
-      <c r="E6" s="14" t="s">
+    <row r="6" s="8" customFormat="1" ht="20" customHeight="1" spans="1:31">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="G6" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="H6" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
-      <c r="U6"/>
-      <c r="V6"/>
-      <c r="W6"/>
-      <c r="X6"/>
-      <c r="Y6"/>
-      <c r="Z6"/>
-      <c r="AA6"/>
-      <c r="AB6"/>
-      <c r="AC6"/>
-      <c r="AD6"/>
-      <c r="AE6"/>
-    </row>
-    <row r="7" s="7" customFormat="1" ht="20" customHeight="1" spans="1:31">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14" t="s">
+      <c r="I6" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" s="17">
-        <v>18650617</v>
-      </c>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-      <c r="U7"/>
-      <c r="V7"/>
-      <c r="W7"/>
-      <c r="X7"/>
-      <c r="Y7"/>
-      <c r="Z7"/>
-      <c r="AA7"/>
-      <c r="AB7"/>
-      <c r="AC7"/>
-      <c r="AD7"/>
-      <c r="AE7"/>
-    </row>
-    <row r="8" s="7" customFormat="1" ht="20" customHeight="1" spans="1:31">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8"/>
-      <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8"/>
-      <c r="Q8"/>
-      <c r="R8"/>
-      <c r="S8"/>
-      <c r="T8"/>
-      <c r="U8"/>
-      <c r="V8"/>
-      <c r="W8"/>
-      <c r="X8"/>
-      <c r="Y8"/>
-      <c r="Z8"/>
-      <c r="AA8"/>
-      <c r="AB8"/>
-      <c r="AC8"/>
-      <c r="AD8"/>
-      <c r="AE8"/>
-    </row>
-    <row r="9" s="7" customFormat="1" ht="20" customHeight="1" spans="1:31">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9"/>
-      <c r="N9"/>
-      <c r="O9"/>
-      <c r="P9"/>
-      <c r="Q9"/>
-      <c r="R9"/>
-      <c r="S9"/>
-      <c r="T9"/>
-      <c r="U9"/>
-      <c r="V9"/>
-      <c r="W9"/>
-      <c r="X9"/>
-      <c r="Y9"/>
-      <c r="Z9"/>
-      <c r="AA9"/>
-      <c r="AB9"/>
-      <c r="AC9"/>
-      <c r="AD9"/>
-      <c r="AE9"/>
-    </row>
-    <row r="10" s="7" customFormat="1" ht="20" customHeight="1" spans="1:31">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10"/>
-      <c r="N10"/>
-      <c r="O10"/>
-      <c r="P10"/>
-      <c r="Q10"/>
-      <c r="R10"/>
-      <c r="S10"/>
-      <c r="T10"/>
-      <c r="U10"/>
-      <c r="V10"/>
-      <c r="W10"/>
-      <c r="X10"/>
-      <c r="Y10"/>
-      <c r="Z10"/>
-      <c r="AA10"/>
-      <c r="AB10"/>
-      <c r="AC10"/>
-      <c r="AD10"/>
-      <c r="AE10"/>
-    </row>
-    <row r="11" s="7" customFormat="1" ht="20" customHeight="1" spans="1:31">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" s="14">
-        <v>2</v>
-      </c>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11"/>
-      <c r="N11"/>
-      <c r="O11"/>
-      <c r="P11"/>
-      <c r="Q11"/>
-      <c r="R11"/>
-      <c r="S11"/>
-      <c r="T11"/>
-      <c r="U11"/>
-      <c r="V11"/>
-      <c r="W11"/>
-      <c r="X11"/>
-      <c r="Y11"/>
-      <c r="Z11"/>
-      <c r="AA11"/>
-      <c r="AB11"/>
-      <c r="AC11"/>
-      <c r="AD11"/>
-      <c r="AE11"/>
-    </row>
-    <row r="12" s="7" customFormat="1" ht="20" customHeight="1" spans="1:31">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="H12"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12"/>
-      <c r="N12"/>
-      <c r="O12"/>
-      <c r="P12"/>
-      <c r="Q12"/>
-      <c r="R12"/>
-      <c r="S12"/>
-      <c r="T12"/>
-      <c r="U12"/>
-      <c r="V12"/>
-      <c r="W12"/>
-      <c r="X12"/>
-      <c r="Y12"/>
-      <c r="Z12"/>
-      <c r="AA12"/>
-      <c r="AB12"/>
-      <c r="AC12"/>
-      <c r="AD12"/>
-      <c r="AE12"/>
-    </row>
-    <row r="13" s="8" customFormat="1" ht="20" customHeight="1" spans="1:31">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="I13" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="20"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20"/>
-      <c r="W13" s="20"/>
-      <c r="X13" s="20"/>
-      <c r="Y13" s="20"/>
-      <c r="Z13" s="20"/>
-      <c r="AA13" s="20"/>
-      <c r="AB13" s="20"/>
-      <c r="AC13" s="20"/>
-      <c r="AD13" s="20"/>
-      <c r="AE13" s="20"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="18"/>
+      <c r="Y6" s="18"/>
+      <c r="Z6" s="18"/>
+      <c r="AA6" s="18"/>
+      <c r="AB6" s="18"/>
+      <c r="AC6" s="18"/>
+      <c r="AD6" s="18"/>
+      <c r="AE6" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C2:C12"/>
+    <mergeCell ref="C2:C5"/>
   </mergeCells>
-  <conditionalFormatting sqref="G9">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$D13="assert"</formula>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>$B5&lt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$B13&lt;0</formula>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>$B5&lt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="3">
-      <formula>$B13&lt;0</formula>
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$D5="assert"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G10">
-    <cfRule type="expression" dxfId="0" priority="10">
-      <formula>$D12="assert"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="11">
-      <formula>$B12&lt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="12">
-      <formula>$B12&lt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7:J8">
-    <cfRule type="expression" dxfId="0" priority="4">
-      <formula>$D7="assert"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="5">
-      <formula>$B7&lt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="6">
-      <formula>$B7&lt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9:J9 I10:J10">
-    <cfRule type="expression" dxfId="0" priority="7">
-      <formula>$D12="assert"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="8">
-      <formula>$B12&lt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="9">
-      <formula>$B12&lt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1 K3 K5 K6 K7 K8 K9 K10 K11 K12 K13 K14:K1048576">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1 K3 K5 K6 K7:K1048576">
       <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H8">
-      <formula1>$H$7:$H$8</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3 D4">
       <formula1>"是，否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E13" errorStyle="information">
-      <formula1>$E$5:$E$13</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5">
+      <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="G5" r:id="rId1" display="http://10.250.112.166:9000/#/dashboard" tooltip="http://10.250.112.166:9000/#/dashboard"/>
+    <hyperlink ref="G5" r:id="rId1" display="18650617" tooltip="http://10.250.112.166:9000/#/dashboard"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3365,128 +2956,128 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="D2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="D3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" ht="25.5" spans="2:7">
       <c r="B4" s="2" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="D4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="2" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="2" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="2" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="2" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" s="2" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" s="2" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="C10" s="3">
         <v>360</v>
@@ -3494,7 +3085,7 @@
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="2" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/project/DRP/excel_drive/TestCase.xlsx
+++ b/project/DRP/excel_drive/TestCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11595" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="7785" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="修订记录" sheetId="2" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>Transsion《文档修订记录》</t>
   </si>
@@ -115,9 +115,6 @@
     <t>是否用例</t>
   </si>
   <si>
-    <t>步骤</t>
-  </si>
-  <si>
     <t>模块描述</t>
   </si>
   <si>
@@ -127,6 +124,12 @@
     <t>步骤名</t>
   </si>
   <si>
+    <t>模块名</t>
+  </si>
+  <si>
+    <t>类名</t>
+  </si>
+  <si>
     <t>关键字</t>
   </si>
   <si>
@@ -145,52 +148,118 @@
     <t>登录</t>
   </si>
   <si>
-    <t>模块名称</t>
+    <t>ST_DRP_001</t>
+  </si>
+  <si>
+    <t>用例名称</t>
+  </si>
+  <si>
+    <t>登录成功</t>
   </si>
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>浏览器类型</t>
-  </si>
-  <si>
-    <t>browser</t>
-  </si>
-  <si>
-    <t>chrome</t>
-  </si>
-  <si>
-    <t>ST_DRP_001</t>
-  </si>
-  <si>
-    <t>用例名称</t>
-  </si>
-  <si>
     <t>统一登录: DRP</t>
   </si>
   <si>
     <t>login</t>
   </si>
   <si>
-    <t>jf3249JFL</t>
-  </si>
-  <si>
-    <t>未执行</t>
+    <t>18650617,xLily6x</t>
   </si>
   <si>
     <t>断言</t>
   </si>
   <si>
-    <t>assert</t>
+    <t>libs.common.assert_ui</t>
+  </si>
+  <si>
+    <t>DomAssert</t>
+  </si>
+  <si>
+    <t>assert_url</t>
   </si>
   <si>
     <t>http://10.250.112.166:9000/#/dashboard</t>
   </si>
   <si>
-    <t>equal</t>
-  </si>
-  <si>
-    <t>{url}</t>
+    <t>assert_att</t>
+  </si>
+  <si>
+    <t>系统管理</t>
+  </si>
+  <si>
+    <t>SQLAssert</t>
+  </si>
+  <si>
+    <t>assert_sql</t>
+  </si>
+  <si>
+    <t>刘勇,select name_zh from uc_user where enable_flag=1</t>
+  </si>
+  <si>
+    <t>用户</t>
+  </si>
+  <si>
+    <t>ST_DRP_002</t>
+  </si>
+  <si>
+    <t>查找用户</t>
+  </si>
+  <si>
+    <t>统一登录</t>
+  </si>
+  <si>
+    <t>切换菜单</t>
+  </si>
+  <si>
+    <t>project.DRP.page_object.nav</t>
+  </si>
+  <si>
+    <t>NavPage</t>
+  </si>
+  <si>
+    <t>click_gotonav</t>
+  </si>
+  <si>
+    <t>系统管理,用户管理</t>
+  </si>
+  <si>
+    <t>project.DRP.page_object.user</t>
+  </si>
+  <si>
+    <t>UserPage</t>
+  </si>
+  <si>
+    <t>search_user</t>
+  </si>
+  <si>
+    <t>18650617,黄琴</t>
+  </si>
+  <si>
+    <t>复位查询</t>
+  </si>
+  <si>
+    <t>reset_account</t>
+  </si>
+  <si>
+    <t>ST_DRP_003</t>
+  </si>
+  <si>
+    <t>添加用户</t>
+  </si>
+  <si>
+    <t>append_account</t>
+  </si>
+  <si>
+    <t>18650617</t>
+  </si>
+  <si>
+    <t>ST_DRP_004</t>
+  </si>
+  <si>
+    <t>配置权限</t>
   </si>
   <si>
     <t>Device Type</t>
@@ -298,10 +367,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="[$-409]d\-mmm;@"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="[$-409]d\-mmm;@"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
@@ -330,13 +399,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
@@ -360,6 +422,88 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -369,14 +513,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -391,7 +528,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -405,6 +542,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -413,17 +557,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -437,74 +573,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -531,7 +600,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.4"/>
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,7 +612,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -555,13 +654,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,37 +744,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,61 +768,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -687,48 +792,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -768,11 +837,26 @@
       <left style="thin">
         <color theme="1" tint="0.5"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.5"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color theme="1" tint="0.5"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color theme="1" tint="0.5"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.5"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -947,6 +1031,41 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -970,15 +1089,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -998,7 +1108,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1017,32 +1127,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1052,10 +1136,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1064,142 +1148,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1223,80 +1307,113 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="37" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="37" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="9" xfId="37" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="10" xfId="37" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="9" xfId="37" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="10" xfId="37" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1355,22 +1472,6 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="51" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="52" builtinId="52"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -1909,691 +2010,691 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="16.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="13.125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="16.375" style="19" customWidth="1"/>
-    <col min="3" max="3" width="32.625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="18.5" style="19" customWidth="1"/>
-    <col min="5" max="5" width="14" style="19" customWidth="1"/>
-    <col min="6" max="256" width="11" style="19"/>
-    <col min="257" max="257" width="14.5" style="19" customWidth="1"/>
-    <col min="258" max="258" width="13.625" style="19" customWidth="1"/>
-    <col min="259" max="259" width="15" style="19" customWidth="1"/>
-    <col min="260" max="260" width="14.5" style="19" customWidth="1"/>
-    <col min="261" max="261" width="14.25" style="19" customWidth="1"/>
-    <col min="262" max="512" width="11" style="19"/>
-    <col min="513" max="513" width="14.5" style="19" customWidth="1"/>
-    <col min="514" max="514" width="13.625" style="19" customWidth="1"/>
-    <col min="515" max="515" width="15" style="19" customWidth="1"/>
-    <col min="516" max="516" width="14.5" style="19" customWidth="1"/>
-    <col min="517" max="517" width="14.25" style="19" customWidth="1"/>
-    <col min="518" max="768" width="11" style="19"/>
-    <col min="769" max="769" width="14.5" style="19" customWidth="1"/>
-    <col min="770" max="770" width="13.625" style="19" customWidth="1"/>
-    <col min="771" max="771" width="15" style="19" customWidth="1"/>
-    <col min="772" max="772" width="14.5" style="19" customWidth="1"/>
-    <col min="773" max="773" width="14.25" style="19" customWidth="1"/>
-    <col min="774" max="1024" width="11" style="19"/>
-    <col min="1025" max="1025" width="14.5" style="19" customWidth="1"/>
-    <col min="1026" max="1026" width="13.625" style="19" customWidth="1"/>
-    <col min="1027" max="1027" width="15" style="19" customWidth="1"/>
-    <col min="1028" max="1028" width="14.5" style="19" customWidth="1"/>
-    <col min="1029" max="1029" width="14.25" style="19" customWidth="1"/>
-    <col min="1030" max="1280" width="11" style="19"/>
-    <col min="1281" max="1281" width="14.5" style="19" customWidth="1"/>
-    <col min="1282" max="1282" width="13.625" style="19" customWidth="1"/>
-    <col min="1283" max="1283" width="15" style="19" customWidth="1"/>
-    <col min="1284" max="1284" width="14.5" style="19" customWidth="1"/>
-    <col min="1285" max="1285" width="14.25" style="19" customWidth="1"/>
-    <col min="1286" max="1536" width="11" style="19"/>
-    <col min="1537" max="1537" width="14.5" style="19" customWidth="1"/>
-    <col min="1538" max="1538" width="13.625" style="19" customWidth="1"/>
-    <col min="1539" max="1539" width="15" style="19" customWidth="1"/>
-    <col min="1540" max="1540" width="14.5" style="19" customWidth="1"/>
-    <col min="1541" max="1541" width="14.25" style="19" customWidth="1"/>
-    <col min="1542" max="1792" width="11" style="19"/>
-    <col min="1793" max="1793" width="14.5" style="19" customWidth="1"/>
-    <col min="1794" max="1794" width="13.625" style="19" customWidth="1"/>
-    <col min="1795" max="1795" width="15" style="19" customWidth="1"/>
-    <col min="1796" max="1796" width="14.5" style="19" customWidth="1"/>
-    <col min="1797" max="1797" width="14.25" style="19" customWidth="1"/>
-    <col min="1798" max="2048" width="11" style="19"/>
-    <col min="2049" max="2049" width="14.5" style="19" customWidth="1"/>
-    <col min="2050" max="2050" width="13.625" style="19" customWidth="1"/>
-    <col min="2051" max="2051" width="15" style="19" customWidth="1"/>
-    <col min="2052" max="2052" width="14.5" style="19" customWidth="1"/>
-    <col min="2053" max="2053" width="14.25" style="19" customWidth="1"/>
-    <col min="2054" max="2304" width="11" style="19"/>
-    <col min="2305" max="2305" width="14.5" style="19" customWidth="1"/>
-    <col min="2306" max="2306" width="13.625" style="19" customWidth="1"/>
-    <col min="2307" max="2307" width="15" style="19" customWidth="1"/>
-    <col min="2308" max="2308" width="14.5" style="19" customWidth="1"/>
-    <col min="2309" max="2309" width="14.25" style="19" customWidth="1"/>
-    <col min="2310" max="2560" width="11" style="19"/>
-    <col min="2561" max="2561" width="14.5" style="19" customWidth="1"/>
-    <col min="2562" max="2562" width="13.625" style="19" customWidth="1"/>
-    <col min="2563" max="2563" width="15" style="19" customWidth="1"/>
-    <col min="2564" max="2564" width="14.5" style="19" customWidth="1"/>
-    <col min="2565" max="2565" width="14.25" style="19" customWidth="1"/>
-    <col min="2566" max="2816" width="11" style="19"/>
-    <col min="2817" max="2817" width="14.5" style="19" customWidth="1"/>
-    <col min="2818" max="2818" width="13.625" style="19" customWidth="1"/>
-    <col min="2819" max="2819" width="15" style="19" customWidth="1"/>
-    <col min="2820" max="2820" width="14.5" style="19" customWidth="1"/>
-    <col min="2821" max="2821" width="14.25" style="19" customWidth="1"/>
-    <col min="2822" max="3072" width="11" style="19"/>
-    <col min="3073" max="3073" width="14.5" style="19" customWidth="1"/>
-    <col min="3074" max="3074" width="13.625" style="19" customWidth="1"/>
-    <col min="3075" max="3075" width="15" style="19" customWidth="1"/>
-    <col min="3076" max="3076" width="14.5" style="19" customWidth="1"/>
-    <col min="3077" max="3077" width="14.25" style="19" customWidth="1"/>
-    <col min="3078" max="3328" width="11" style="19"/>
-    <col min="3329" max="3329" width="14.5" style="19" customWidth="1"/>
-    <col min="3330" max="3330" width="13.625" style="19" customWidth="1"/>
-    <col min="3331" max="3331" width="15" style="19" customWidth="1"/>
-    <col min="3332" max="3332" width="14.5" style="19" customWidth="1"/>
-    <col min="3333" max="3333" width="14.25" style="19" customWidth="1"/>
-    <col min="3334" max="3584" width="11" style="19"/>
-    <col min="3585" max="3585" width="14.5" style="19" customWidth="1"/>
-    <col min="3586" max="3586" width="13.625" style="19" customWidth="1"/>
-    <col min="3587" max="3587" width="15" style="19" customWidth="1"/>
-    <col min="3588" max="3588" width="14.5" style="19" customWidth="1"/>
-    <col min="3589" max="3589" width="14.25" style="19" customWidth="1"/>
-    <col min="3590" max="3840" width="11" style="19"/>
-    <col min="3841" max="3841" width="14.5" style="19" customWidth="1"/>
-    <col min="3842" max="3842" width="13.625" style="19" customWidth="1"/>
-    <col min="3843" max="3843" width="15" style="19" customWidth="1"/>
-    <col min="3844" max="3844" width="14.5" style="19" customWidth="1"/>
-    <col min="3845" max="3845" width="14.25" style="19" customWidth="1"/>
-    <col min="3846" max="4096" width="11" style="19"/>
-    <col min="4097" max="4097" width="14.5" style="19" customWidth="1"/>
-    <col min="4098" max="4098" width="13.625" style="19" customWidth="1"/>
-    <col min="4099" max="4099" width="15" style="19" customWidth="1"/>
-    <col min="4100" max="4100" width="14.5" style="19" customWidth="1"/>
-    <col min="4101" max="4101" width="14.25" style="19" customWidth="1"/>
-    <col min="4102" max="4352" width="11" style="19"/>
-    <col min="4353" max="4353" width="14.5" style="19" customWidth="1"/>
-    <col min="4354" max="4354" width="13.625" style="19" customWidth="1"/>
-    <col min="4355" max="4355" width="15" style="19" customWidth="1"/>
-    <col min="4356" max="4356" width="14.5" style="19" customWidth="1"/>
-    <col min="4357" max="4357" width="14.25" style="19" customWidth="1"/>
-    <col min="4358" max="4608" width="11" style="19"/>
-    <col min="4609" max="4609" width="14.5" style="19" customWidth="1"/>
-    <col min="4610" max="4610" width="13.625" style="19" customWidth="1"/>
-    <col min="4611" max="4611" width="15" style="19" customWidth="1"/>
-    <col min="4612" max="4612" width="14.5" style="19" customWidth="1"/>
-    <col min="4613" max="4613" width="14.25" style="19" customWidth="1"/>
-    <col min="4614" max="4864" width="11" style="19"/>
-    <col min="4865" max="4865" width="14.5" style="19" customWidth="1"/>
-    <col min="4866" max="4866" width="13.625" style="19" customWidth="1"/>
-    <col min="4867" max="4867" width="15" style="19" customWidth="1"/>
-    <col min="4868" max="4868" width="14.5" style="19" customWidth="1"/>
-    <col min="4869" max="4869" width="14.25" style="19" customWidth="1"/>
-    <col min="4870" max="5120" width="11" style="19"/>
-    <col min="5121" max="5121" width="14.5" style="19" customWidth="1"/>
-    <col min="5122" max="5122" width="13.625" style="19" customWidth="1"/>
-    <col min="5123" max="5123" width="15" style="19" customWidth="1"/>
-    <col min="5124" max="5124" width="14.5" style="19" customWidth="1"/>
-    <col min="5125" max="5125" width="14.25" style="19" customWidth="1"/>
-    <col min="5126" max="5376" width="11" style="19"/>
-    <col min="5377" max="5377" width="14.5" style="19" customWidth="1"/>
-    <col min="5378" max="5378" width="13.625" style="19" customWidth="1"/>
-    <col min="5379" max="5379" width="15" style="19" customWidth="1"/>
-    <col min="5380" max="5380" width="14.5" style="19" customWidth="1"/>
-    <col min="5381" max="5381" width="14.25" style="19" customWidth="1"/>
-    <col min="5382" max="5632" width="11" style="19"/>
-    <col min="5633" max="5633" width="14.5" style="19" customWidth="1"/>
-    <col min="5634" max="5634" width="13.625" style="19" customWidth="1"/>
-    <col min="5635" max="5635" width="15" style="19" customWidth="1"/>
-    <col min="5636" max="5636" width="14.5" style="19" customWidth="1"/>
-    <col min="5637" max="5637" width="14.25" style="19" customWidth="1"/>
-    <col min="5638" max="5888" width="11" style="19"/>
-    <col min="5889" max="5889" width="14.5" style="19" customWidth="1"/>
-    <col min="5890" max="5890" width="13.625" style="19" customWidth="1"/>
-    <col min="5891" max="5891" width="15" style="19" customWidth="1"/>
-    <col min="5892" max="5892" width="14.5" style="19" customWidth="1"/>
-    <col min="5893" max="5893" width="14.25" style="19" customWidth="1"/>
-    <col min="5894" max="6144" width="11" style="19"/>
-    <col min="6145" max="6145" width="14.5" style="19" customWidth="1"/>
-    <col min="6146" max="6146" width="13.625" style="19" customWidth="1"/>
-    <col min="6147" max="6147" width="15" style="19" customWidth="1"/>
-    <col min="6148" max="6148" width="14.5" style="19" customWidth="1"/>
-    <col min="6149" max="6149" width="14.25" style="19" customWidth="1"/>
-    <col min="6150" max="6400" width="11" style="19"/>
-    <col min="6401" max="6401" width="14.5" style="19" customWidth="1"/>
-    <col min="6402" max="6402" width="13.625" style="19" customWidth="1"/>
-    <col min="6403" max="6403" width="15" style="19" customWidth="1"/>
-    <col min="6404" max="6404" width="14.5" style="19" customWidth="1"/>
-    <col min="6405" max="6405" width="14.25" style="19" customWidth="1"/>
-    <col min="6406" max="6656" width="11" style="19"/>
-    <col min="6657" max="6657" width="14.5" style="19" customWidth="1"/>
-    <col min="6658" max="6658" width="13.625" style="19" customWidth="1"/>
-    <col min="6659" max="6659" width="15" style="19" customWidth="1"/>
-    <col min="6660" max="6660" width="14.5" style="19" customWidth="1"/>
-    <col min="6661" max="6661" width="14.25" style="19" customWidth="1"/>
-    <col min="6662" max="6912" width="11" style="19"/>
-    <col min="6913" max="6913" width="14.5" style="19" customWidth="1"/>
-    <col min="6914" max="6914" width="13.625" style="19" customWidth="1"/>
-    <col min="6915" max="6915" width="15" style="19" customWidth="1"/>
-    <col min="6916" max="6916" width="14.5" style="19" customWidth="1"/>
-    <col min="6917" max="6917" width="14.25" style="19" customWidth="1"/>
-    <col min="6918" max="7168" width="11" style="19"/>
-    <col min="7169" max="7169" width="14.5" style="19" customWidth="1"/>
-    <col min="7170" max="7170" width="13.625" style="19" customWidth="1"/>
-    <col min="7171" max="7171" width="15" style="19" customWidth="1"/>
-    <col min="7172" max="7172" width="14.5" style="19" customWidth="1"/>
-    <col min="7173" max="7173" width="14.25" style="19" customWidth="1"/>
-    <col min="7174" max="7424" width="11" style="19"/>
-    <col min="7425" max="7425" width="14.5" style="19" customWidth="1"/>
-    <col min="7426" max="7426" width="13.625" style="19" customWidth="1"/>
-    <col min="7427" max="7427" width="15" style="19" customWidth="1"/>
-    <col min="7428" max="7428" width="14.5" style="19" customWidth="1"/>
-    <col min="7429" max="7429" width="14.25" style="19" customWidth="1"/>
-    <col min="7430" max="7680" width="11" style="19"/>
-    <col min="7681" max="7681" width="14.5" style="19" customWidth="1"/>
-    <col min="7682" max="7682" width="13.625" style="19" customWidth="1"/>
-    <col min="7683" max="7683" width="15" style="19" customWidth="1"/>
-    <col min="7684" max="7684" width="14.5" style="19" customWidth="1"/>
-    <col min="7685" max="7685" width="14.25" style="19" customWidth="1"/>
-    <col min="7686" max="7936" width="11" style="19"/>
-    <col min="7937" max="7937" width="14.5" style="19" customWidth="1"/>
-    <col min="7938" max="7938" width="13.625" style="19" customWidth="1"/>
-    <col min="7939" max="7939" width="15" style="19" customWidth="1"/>
-    <col min="7940" max="7940" width="14.5" style="19" customWidth="1"/>
-    <col min="7941" max="7941" width="14.25" style="19" customWidth="1"/>
-    <col min="7942" max="8192" width="11" style="19"/>
-    <col min="8193" max="8193" width="14.5" style="19" customWidth="1"/>
-    <col min="8194" max="8194" width="13.625" style="19" customWidth="1"/>
-    <col min="8195" max="8195" width="15" style="19" customWidth="1"/>
-    <col min="8196" max="8196" width="14.5" style="19" customWidth="1"/>
-    <col min="8197" max="8197" width="14.25" style="19" customWidth="1"/>
-    <col min="8198" max="8448" width="11" style="19"/>
-    <col min="8449" max="8449" width="14.5" style="19" customWidth="1"/>
-    <col min="8450" max="8450" width="13.625" style="19" customWidth="1"/>
-    <col min="8451" max="8451" width="15" style="19" customWidth="1"/>
-    <col min="8452" max="8452" width="14.5" style="19" customWidth="1"/>
-    <col min="8453" max="8453" width="14.25" style="19" customWidth="1"/>
-    <col min="8454" max="8704" width="11" style="19"/>
-    <col min="8705" max="8705" width="14.5" style="19" customWidth="1"/>
-    <col min="8706" max="8706" width="13.625" style="19" customWidth="1"/>
-    <col min="8707" max="8707" width="15" style="19" customWidth="1"/>
-    <col min="8708" max="8708" width="14.5" style="19" customWidth="1"/>
-    <col min="8709" max="8709" width="14.25" style="19" customWidth="1"/>
-    <col min="8710" max="8960" width="11" style="19"/>
-    <col min="8961" max="8961" width="14.5" style="19" customWidth="1"/>
-    <col min="8962" max="8962" width="13.625" style="19" customWidth="1"/>
-    <col min="8963" max="8963" width="15" style="19" customWidth="1"/>
-    <col min="8964" max="8964" width="14.5" style="19" customWidth="1"/>
-    <col min="8965" max="8965" width="14.25" style="19" customWidth="1"/>
-    <col min="8966" max="9216" width="11" style="19"/>
-    <col min="9217" max="9217" width="14.5" style="19" customWidth="1"/>
-    <col min="9218" max="9218" width="13.625" style="19" customWidth="1"/>
-    <col min="9219" max="9219" width="15" style="19" customWidth="1"/>
-    <col min="9220" max="9220" width="14.5" style="19" customWidth="1"/>
-    <col min="9221" max="9221" width="14.25" style="19" customWidth="1"/>
-    <col min="9222" max="9472" width="11" style="19"/>
-    <col min="9473" max="9473" width="14.5" style="19" customWidth="1"/>
-    <col min="9474" max="9474" width="13.625" style="19" customWidth="1"/>
-    <col min="9475" max="9475" width="15" style="19" customWidth="1"/>
-    <col min="9476" max="9476" width="14.5" style="19" customWidth="1"/>
-    <col min="9477" max="9477" width="14.25" style="19" customWidth="1"/>
-    <col min="9478" max="9728" width="11" style="19"/>
-    <col min="9729" max="9729" width="14.5" style="19" customWidth="1"/>
-    <col min="9730" max="9730" width="13.625" style="19" customWidth="1"/>
-    <col min="9731" max="9731" width="15" style="19" customWidth="1"/>
-    <col min="9732" max="9732" width="14.5" style="19" customWidth="1"/>
-    <col min="9733" max="9733" width="14.25" style="19" customWidth="1"/>
-    <col min="9734" max="9984" width="11" style="19"/>
-    <col min="9985" max="9985" width="14.5" style="19" customWidth="1"/>
-    <col min="9986" max="9986" width="13.625" style="19" customWidth="1"/>
-    <col min="9987" max="9987" width="15" style="19" customWidth="1"/>
-    <col min="9988" max="9988" width="14.5" style="19" customWidth="1"/>
-    <col min="9989" max="9989" width="14.25" style="19" customWidth="1"/>
-    <col min="9990" max="10240" width="11" style="19"/>
-    <col min="10241" max="10241" width="14.5" style="19" customWidth="1"/>
-    <col min="10242" max="10242" width="13.625" style="19" customWidth="1"/>
-    <col min="10243" max="10243" width="15" style="19" customWidth="1"/>
-    <col min="10244" max="10244" width="14.5" style="19" customWidth="1"/>
-    <col min="10245" max="10245" width="14.25" style="19" customWidth="1"/>
-    <col min="10246" max="10496" width="11" style="19"/>
-    <col min="10497" max="10497" width="14.5" style="19" customWidth="1"/>
-    <col min="10498" max="10498" width="13.625" style="19" customWidth="1"/>
-    <col min="10499" max="10499" width="15" style="19" customWidth="1"/>
-    <col min="10500" max="10500" width="14.5" style="19" customWidth="1"/>
-    <col min="10501" max="10501" width="14.25" style="19" customWidth="1"/>
-    <col min="10502" max="10752" width="11" style="19"/>
-    <col min="10753" max="10753" width="14.5" style="19" customWidth="1"/>
-    <col min="10754" max="10754" width="13.625" style="19" customWidth="1"/>
-    <col min="10755" max="10755" width="15" style="19" customWidth="1"/>
-    <col min="10756" max="10756" width="14.5" style="19" customWidth="1"/>
-    <col min="10757" max="10757" width="14.25" style="19" customWidth="1"/>
-    <col min="10758" max="11008" width="11" style="19"/>
-    <col min="11009" max="11009" width="14.5" style="19" customWidth="1"/>
-    <col min="11010" max="11010" width="13.625" style="19" customWidth="1"/>
-    <col min="11011" max="11011" width="15" style="19" customWidth="1"/>
-    <col min="11012" max="11012" width="14.5" style="19" customWidth="1"/>
-    <col min="11013" max="11013" width="14.25" style="19" customWidth="1"/>
-    <col min="11014" max="11264" width="11" style="19"/>
-    <col min="11265" max="11265" width="14.5" style="19" customWidth="1"/>
-    <col min="11266" max="11266" width="13.625" style="19" customWidth="1"/>
-    <col min="11267" max="11267" width="15" style="19" customWidth="1"/>
-    <col min="11268" max="11268" width="14.5" style="19" customWidth="1"/>
-    <col min="11269" max="11269" width="14.25" style="19" customWidth="1"/>
-    <col min="11270" max="11520" width="11" style="19"/>
-    <col min="11521" max="11521" width="14.5" style="19" customWidth="1"/>
-    <col min="11522" max="11522" width="13.625" style="19" customWidth="1"/>
-    <col min="11523" max="11523" width="15" style="19" customWidth="1"/>
-    <col min="11524" max="11524" width="14.5" style="19" customWidth="1"/>
-    <col min="11525" max="11525" width="14.25" style="19" customWidth="1"/>
-    <col min="11526" max="11776" width="11" style="19"/>
-    <col min="11777" max="11777" width="14.5" style="19" customWidth="1"/>
-    <col min="11778" max="11778" width="13.625" style="19" customWidth="1"/>
-    <col min="11779" max="11779" width="15" style="19" customWidth="1"/>
-    <col min="11780" max="11780" width="14.5" style="19" customWidth="1"/>
-    <col min="11781" max="11781" width="14.25" style="19" customWidth="1"/>
-    <col min="11782" max="12032" width="11" style="19"/>
-    <col min="12033" max="12033" width="14.5" style="19" customWidth="1"/>
-    <col min="12034" max="12034" width="13.625" style="19" customWidth="1"/>
-    <col min="12035" max="12035" width="15" style="19" customWidth="1"/>
-    <col min="12036" max="12036" width="14.5" style="19" customWidth="1"/>
-    <col min="12037" max="12037" width="14.25" style="19" customWidth="1"/>
-    <col min="12038" max="12288" width="11" style="19"/>
-    <col min="12289" max="12289" width="14.5" style="19" customWidth="1"/>
-    <col min="12290" max="12290" width="13.625" style="19" customWidth="1"/>
-    <col min="12291" max="12291" width="15" style="19" customWidth="1"/>
-    <col min="12292" max="12292" width="14.5" style="19" customWidth="1"/>
-    <col min="12293" max="12293" width="14.25" style="19" customWidth="1"/>
-    <col min="12294" max="12544" width="11" style="19"/>
-    <col min="12545" max="12545" width="14.5" style="19" customWidth="1"/>
-    <col min="12546" max="12546" width="13.625" style="19" customWidth="1"/>
-    <col min="12547" max="12547" width="15" style="19" customWidth="1"/>
-    <col min="12548" max="12548" width="14.5" style="19" customWidth="1"/>
-    <col min="12549" max="12549" width="14.25" style="19" customWidth="1"/>
-    <col min="12550" max="12800" width="11" style="19"/>
-    <col min="12801" max="12801" width="14.5" style="19" customWidth="1"/>
-    <col min="12802" max="12802" width="13.625" style="19" customWidth="1"/>
-    <col min="12803" max="12803" width="15" style="19" customWidth="1"/>
-    <col min="12804" max="12804" width="14.5" style="19" customWidth="1"/>
-    <col min="12805" max="12805" width="14.25" style="19" customWidth="1"/>
-    <col min="12806" max="13056" width="11" style="19"/>
-    <col min="13057" max="13057" width="14.5" style="19" customWidth="1"/>
-    <col min="13058" max="13058" width="13.625" style="19" customWidth="1"/>
-    <col min="13059" max="13059" width="15" style="19" customWidth="1"/>
-    <col min="13060" max="13060" width="14.5" style="19" customWidth="1"/>
-    <col min="13061" max="13061" width="14.25" style="19" customWidth="1"/>
-    <col min="13062" max="13312" width="11" style="19"/>
-    <col min="13313" max="13313" width="14.5" style="19" customWidth="1"/>
-    <col min="13314" max="13314" width="13.625" style="19" customWidth="1"/>
-    <col min="13315" max="13315" width="15" style="19" customWidth="1"/>
-    <col min="13316" max="13316" width="14.5" style="19" customWidth="1"/>
-    <col min="13317" max="13317" width="14.25" style="19" customWidth="1"/>
-    <col min="13318" max="13568" width="11" style="19"/>
-    <col min="13569" max="13569" width="14.5" style="19" customWidth="1"/>
-    <col min="13570" max="13570" width="13.625" style="19" customWidth="1"/>
-    <col min="13571" max="13571" width="15" style="19" customWidth="1"/>
-    <col min="13572" max="13572" width="14.5" style="19" customWidth="1"/>
-    <col min="13573" max="13573" width="14.25" style="19" customWidth="1"/>
-    <col min="13574" max="13824" width="11" style="19"/>
-    <col min="13825" max="13825" width="14.5" style="19" customWidth="1"/>
-    <col min="13826" max="13826" width="13.625" style="19" customWidth="1"/>
-    <col min="13827" max="13827" width="15" style="19" customWidth="1"/>
-    <col min="13828" max="13828" width="14.5" style="19" customWidth="1"/>
-    <col min="13829" max="13829" width="14.25" style="19" customWidth="1"/>
-    <col min="13830" max="14080" width="11" style="19"/>
-    <col min="14081" max="14081" width="14.5" style="19" customWidth="1"/>
-    <col min="14082" max="14082" width="13.625" style="19" customWidth="1"/>
-    <col min="14083" max="14083" width="15" style="19" customWidth="1"/>
-    <col min="14084" max="14084" width="14.5" style="19" customWidth="1"/>
-    <col min="14085" max="14085" width="14.25" style="19" customWidth="1"/>
-    <col min="14086" max="14336" width="11" style="19"/>
-    <col min="14337" max="14337" width="14.5" style="19" customWidth="1"/>
-    <col min="14338" max="14338" width="13.625" style="19" customWidth="1"/>
-    <col min="14339" max="14339" width="15" style="19" customWidth="1"/>
-    <col min="14340" max="14340" width="14.5" style="19" customWidth="1"/>
-    <col min="14341" max="14341" width="14.25" style="19" customWidth="1"/>
-    <col min="14342" max="14592" width="11" style="19"/>
-    <col min="14593" max="14593" width="14.5" style="19" customWidth="1"/>
-    <col min="14594" max="14594" width="13.625" style="19" customWidth="1"/>
-    <col min="14595" max="14595" width="15" style="19" customWidth="1"/>
-    <col min="14596" max="14596" width="14.5" style="19" customWidth="1"/>
-    <col min="14597" max="14597" width="14.25" style="19" customWidth="1"/>
-    <col min="14598" max="14848" width="11" style="19"/>
-    <col min="14849" max="14849" width="14.5" style="19" customWidth="1"/>
-    <col min="14850" max="14850" width="13.625" style="19" customWidth="1"/>
-    <col min="14851" max="14851" width="15" style="19" customWidth="1"/>
-    <col min="14852" max="14852" width="14.5" style="19" customWidth="1"/>
-    <col min="14853" max="14853" width="14.25" style="19" customWidth="1"/>
-    <col min="14854" max="15104" width="11" style="19"/>
-    <col min="15105" max="15105" width="14.5" style="19" customWidth="1"/>
-    <col min="15106" max="15106" width="13.625" style="19" customWidth="1"/>
-    <col min="15107" max="15107" width="15" style="19" customWidth="1"/>
-    <col min="15108" max="15108" width="14.5" style="19" customWidth="1"/>
-    <col min="15109" max="15109" width="14.25" style="19" customWidth="1"/>
-    <col min="15110" max="15360" width="11" style="19"/>
-    <col min="15361" max="15361" width="14.5" style="19" customWidth="1"/>
-    <col min="15362" max="15362" width="13.625" style="19" customWidth="1"/>
-    <col min="15363" max="15363" width="15" style="19" customWidth="1"/>
-    <col min="15364" max="15364" width="14.5" style="19" customWidth="1"/>
-    <col min="15365" max="15365" width="14.25" style="19" customWidth="1"/>
-    <col min="15366" max="15616" width="11" style="19"/>
-    <col min="15617" max="15617" width="14.5" style="19" customWidth="1"/>
-    <col min="15618" max="15618" width="13.625" style="19" customWidth="1"/>
-    <col min="15619" max="15619" width="15" style="19" customWidth="1"/>
-    <col min="15620" max="15620" width="14.5" style="19" customWidth="1"/>
-    <col min="15621" max="15621" width="14.25" style="19" customWidth="1"/>
-    <col min="15622" max="15872" width="11" style="19"/>
-    <col min="15873" max="15873" width="14.5" style="19" customWidth="1"/>
-    <col min="15874" max="15874" width="13.625" style="19" customWidth="1"/>
-    <col min="15875" max="15875" width="15" style="19" customWidth="1"/>
-    <col min="15876" max="15876" width="14.5" style="19" customWidth="1"/>
-    <col min="15877" max="15877" width="14.25" style="19" customWidth="1"/>
-    <col min="15878" max="16128" width="11" style="19"/>
-    <col min="16129" max="16129" width="14.5" style="19" customWidth="1"/>
-    <col min="16130" max="16130" width="13.625" style="19" customWidth="1"/>
-    <col min="16131" max="16131" width="15" style="19" customWidth="1"/>
-    <col min="16132" max="16132" width="14.5" style="19" customWidth="1"/>
-    <col min="16133" max="16133" width="14.25" style="19" customWidth="1"/>
-    <col min="16134" max="16383" width="11" style="19"/>
+    <col min="1" max="1" width="13.125" style="30" customWidth="1"/>
+    <col min="2" max="2" width="16.375" style="30" customWidth="1"/>
+    <col min="3" max="3" width="32.625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="30" customWidth="1"/>
+    <col min="5" max="5" width="14" style="30" customWidth="1"/>
+    <col min="6" max="256" width="11" style="30"/>
+    <col min="257" max="257" width="14.5" style="30" customWidth="1"/>
+    <col min="258" max="258" width="13.625" style="30" customWidth="1"/>
+    <col min="259" max="259" width="15" style="30" customWidth="1"/>
+    <col min="260" max="260" width="14.5" style="30" customWidth="1"/>
+    <col min="261" max="261" width="14.25" style="30" customWidth="1"/>
+    <col min="262" max="512" width="11" style="30"/>
+    <col min="513" max="513" width="14.5" style="30" customWidth="1"/>
+    <col min="514" max="514" width="13.625" style="30" customWidth="1"/>
+    <col min="515" max="515" width="15" style="30" customWidth="1"/>
+    <col min="516" max="516" width="14.5" style="30" customWidth="1"/>
+    <col min="517" max="517" width="14.25" style="30" customWidth="1"/>
+    <col min="518" max="768" width="11" style="30"/>
+    <col min="769" max="769" width="14.5" style="30" customWidth="1"/>
+    <col min="770" max="770" width="13.625" style="30" customWidth="1"/>
+    <col min="771" max="771" width="15" style="30" customWidth="1"/>
+    <col min="772" max="772" width="14.5" style="30" customWidth="1"/>
+    <col min="773" max="773" width="14.25" style="30" customWidth="1"/>
+    <col min="774" max="1024" width="11" style="30"/>
+    <col min="1025" max="1025" width="14.5" style="30" customWidth="1"/>
+    <col min="1026" max="1026" width="13.625" style="30" customWidth="1"/>
+    <col min="1027" max="1027" width="15" style="30" customWidth="1"/>
+    <col min="1028" max="1028" width="14.5" style="30" customWidth="1"/>
+    <col min="1029" max="1029" width="14.25" style="30" customWidth="1"/>
+    <col min="1030" max="1280" width="11" style="30"/>
+    <col min="1281" max="1281" width="14.5" style="30" customWidth="1"/>
+    <col min="1282" max="1282" width="13.625" style="30" customWidth="1"/>
+    <col min="1283" max="1283" width="15" style="30" customWidth="1"/>
+    <col min="1284" max="1284" width="14.5" style="30" customWidth="1"/>
+    <col min="1285" max="1285" width="14.25" style="30" customWidth="1"/>
+    <col min="1286" max="1536" width="11" style="30"/>
+    <col min="1537" max="1537" width="14.5" style="30" customWidth="1"/>
+    <col min="1538" max="1538" width="13.625" style="30" customWidth="1"/>
+    <col min="1539" max="1539" width="15" style="30" customWidth="1"/>
+    <col min="1540" max="1540" width="14.5" style="30" customWidth="1"/>
+    <col min="1541" max="1541" width="14.25" style="30" customWidth="1"/>
+    <col min="1542" max="1792" width="11" style="30"/>
+    <col min="1793" max="1793" width="14.5" style="30" customWidth="1"/>
+    <col min="1794" max="1794" width="13.625" style="30" customWidth="1"/>
+    <col min="1795" max="1795" width="15" style="30" customWidth="1"/>
+    <col min="1796" max="1796" width="14.5" style="30" customWidth="1"/>
+    <col min="1797" max="1797" width="14.25" style="30" customWidth="1"/>
+    <col min="1798" max="2048" width="11" style="30"/>
+    <col min="2049" max="2049" width="14.5" style="30" customWidth="1"/>
+    <col min="2050" max="2050" width="13.625" style="30" customWidth="1"/>
+    <col min="2051" max="2051" width="15" style="30" customWidth="1"/>
+    <col min="2052" max="2052" width="14.5" style="30" customWidth="1"/>
+    <col min="2053" max="2053" width="14.25" style="30" customWidth="1"/>
+    <col min="2054" max="2304" width="11" style="30"/>
+    <col min="2305" max="2305" width="14.5" style="30" customWidth="1"/>
+    <col min="2306" max="2306" width="13.625" style="30" customWidth="1"/>
+    <col min="2307" max="2307" width="15" style="30" customWidth="1"/>
+    <col min="2308" max="2308" width="14.5" style="30" customWidth="1"/>
+    <col min="2309" max="2309" width="14.25" style="30" customWidth="1"/>
+    <col min="2310" max="2560" width="11" style="30"/>
+    <col min="2561" max="2561" width="14.5" style="30" customWidth="1"/>
+    <col min="2562" max="2562" width="13.625" style="30" customWidth="1"/>
+    <col min="2563" max="2563" width="15" style="30" customWidth="1"/>
+    <col min="2564" max="2564" width="14.5" style="30" customWidth="1"/>
+    <col min="2565" max="2565" width="14.25" style="30" customWidth="1"/>
+    <col min="2566" max="2816" width="11" style="30"/>
+    <col min="2817" max="2817" width="14.5" style="30" customWidth="1"/>
+    <col min="2818" max="2818" width="13.625" style="30" customWidth="1"/>
+    <col min="2819" max="2819" width="15" style="30" customWidth="1"/>
+    <col min="2820" max="2820" width="14.5" style="30" customWidth="1"/>
+    <col min="2821" max="2821" width="14.25" style="30" customWidth="1"/>
+    <col min="2822" max="3072" width="11" style="30"/>
+    <col min="3073" max="3073" width="14.5" style="30" customWidth="1"/>
+    <col min="3074" max="3074" width="13.625" style="30" customWidth="1"/>
+    <col min="3075" max="3075" width="15" style="30" customWidth="1"/>
+    <col min="3076" max="3076" width="14.5" style="30" customWidth="1"/>
+    <col min="3077" max="3077" width="14.25" style="30" customWidth="1"/>
+    <col min="3078" max="3328" width="11" style="30"/>
+    <col min="3329" max="3329" width="14.5" style="30" customWidth="1"/>
+    <col min="3330" max="3330" width="13.625" style="30" customWidth="1"/>
+    <col min="3331" max="3331" width="15" style="30" customWidth="1"/>
+    <col min="3332" max="3332" width="14.5" style="30" customWidth="1"/>
+    <col min="3333" max="3333" width="14.25" style="30" customWidth="1"/>
+    <col min="3334" max="3584" width="11" style="30"/>
+    <col min="3585" max="3585" width="14.5" style="30" customWidth="1"/>
+    <col min="3586" max="3586" width="13.625" style="30" customWidth="1"/>
+    <col min="3587" max="3587" width="15" style="30" customWidth="1"/>
+    <col min="3588" max="3588" width="14.5" style="30" customWidth="1"/>
+    <col min="3589" max="3589" width="14.25" style="30" customWidth="1"/>
+    <col min="3590" max="3840" width="11" style="30"/>
+    <col min="3841" max="3841" width="14.5" style="30" customWidth="1"/>
+    <col min="3842" max="3842" width="13.625" style="30" customWidth="1"/>
+    <col min="3843" max="3843" width="15" style="30" customWidth="1"/>
+    <col min="3844" max="3844" width="14.5" style="30" customWidth="1"/>
+    <col min="3845" max="3845" width="14.25" style="30" customWidth="1"/>
+    <col min="3846" max="4096" width="11" style="30"/>
+    <col min="4097" max="4097" width="14.5" style="30" customWidth="1"/>
+    <col min="4098" max="4098" width="13.625" style="30" customWidth="1"/>
+    <col min="4099" max="4099" width="15" style="30" customWidth="1"/>
+    <col min="4100" max="4100" width="14.5" style="30" customWidth="1"/>
+    <col min="4101" max="4101" width="14.25" style="30" customWidth="1"/>
+    <col min="4102" max="4352" width="11" style="30"/>
+    <col min="4353" max="4353" width="14.5" style="30" customWidth="1"/>
+    <col min="4354" max="4354" width="13.625" style="30" customWidth="1"/>
+    <col min="4355" max="4355" width="15" style="30" customWidth="1"/>
+    <col min="4356" max="4356" width="14.5" style="30" customWidth="1"/>
+    <col min="4357" max="4357" width="14.25" style="30" customWidth="1"/>
+    <col min="4358" max="4608" width="11" style="30"/>
+    <col min="4609" max="4609" width="14.5" style="30" customWidth="1"/>
+    <col min="4610" max="4610" width="13.625" style="30" customWidth="1"/>
+    <col min="4611" max="4611" width="15" style="30" customWidth="1"/>
+    <col min="4612" max="4612" width="14.5" style="30" customWidth="1"/>
+    <col min="4613" max="4613" width="14.25" style="30" customWidth="1"/>
+    <col min="4614" max="4864" width="11" style="30"/>
+    <col min="4865" max="4865" width="14.5" style="30" customWidth="1"/>
+    <col min="4866" max="4866" width="13.625" style="30" customWidth="1"/>
+    <col min="4867" max="4867" width="15" style="30" customWidth="1"/>
+    <col min="4868" max="4868" width="14.5" style="30" customWidth="1"/>
+    <col min="4869" max="4869" width="14.25" style="30" customWidth="1"/>
+    <col min="4870" max="5120" width="11" style="30"/>
+    <col min="5121" max="5121" width="14.5" style="30" customWidth="1"/>
+    <col min="5122" max="5122" width="13.625" style="30" customWidth="1"/>
+    <col min="5123" max="5123" width="15" style="30" customWidth="1"/>
+    <col min="5124" max="5124" width="14.5" style="30" customWidth="1"/>
+    <col min="5125" max="5125" width="14.25" style="30" customWidth="1"/>
+    <col min="5126" max="5376" width="11" style="30"/>
+    <col min="5377" max="5377" width="14.5" style="30" customWidth="1"/>
+    <col min="5378" max="5378" width="13.625" style="30" customWidth="1"/>
+    <col min="5379" max="5379" width="15" style="30" customWidth="1"/>
+    <col min="5380" max="5380" width="14.5" style="30" customWidth="1"/>
+    <col min="5381" max="5381" width="14.25" style="30" customWidth="1"/>
+    <col min="5382" max="5632" width="11" style="30"/>
+    <col min="5633" max="5633" width="14.5" style="30" customWidth="1"/>
+    <col min="5634" max="5634" width="13.625" style="30" customWidth="1"/>
+    <col min="5635" max="5635" width="15" style="30" customWidth="1"/>
+    <col min="5636" max="5636" width="14.5" style="30" customWidth="1"/>
+    <col min="5637" max="5637" width="14.25" style="30" customWidth="1"/>
+    <col min="5638" max="5888" width="11" style="30"/>
+    <col min="5889" max="5889" width="14.5" style="30" customWidth="1"/>
+    <col min="5890" max="5890" width="13.625" style="30" customWidth="1"/>
+    <col min="5891" max="5891" width="15" style="30" customWidth="1"/>
+    <col min="5892" max="5892" width="14.5" style="30" customWidth="1"/>
+    <col min="5893" max="5893" width="14.25" style="30" customWidth="1"/>
+    <col min="5894" max="6144" width="11" style="30"/>
+    <col min="6145" max="6145" width="14.5" style="30" customWidth="1"/>
+    <col min="6146" max="6146" width="13.625" style="30" customWidth="1"/>
+    <col min="6147" max="6147" width="15" style="30" customWidth="1"/>
+    <col min="6148" max="6148" width="14.5" style="30" customWidth="1"/>
+    <col min="6149" max="6149" width="14.25" style="30" customWidth="1"/>
+    <col min="6150" max="6400" width="11" style="30"/>
+    <col min="6401" max="6401" width="14.5" style="30" customWidth="1"/>
+    <col min="6402" max="6402" width="13.625" style="30" customWidth="1"/>
+    <col min="6403" max="6403" width="15" style="30" customWidth="1"/>
+    <col min="6404" max="6404" width="14.5" style="30" customWidth="1"/>
+    <col min="6405" max="6405" width="14.25" style="30" customWidth="1"/>
+    <col min="6406" max="6656" width="11" style="30"/>
+    <col min="6657" max="6657" width="14.5" style="30" customWidth="1"/>
+    <col min="6658" max="6658" width="13.625" style="30" customWidth="1"/>
+    <col min="6659" max="6659" width="15" style="30" customWidth="1"/>
+    <col min="6660" max="6660" width="14.5" style="30" customWidth="1"/>
+    <col min="6661" max="6661" width="14.25" style="30" customWidth="1"/>
+    <col min="6662" max="6912" width="11" style="30"/>
+    <col min="6913" max="6913" width="14.5" style="30" customWidth="1"/>
+    <col min="6914" max="6914" width="13.625" style="30" customWidth="1"/>
+    <col min="6915" max="6915" width="15" style="30" customWidth="1"/>
+    <col min="6916" max="6916" width="14.5" style="30" customWidth="1"/>
+    <col min="6917" max="6917" width="14.25" style="30" customWidth="1"/>
+    <col min="6918" max="7168" width="11" style="30"/>
+    <col min="7169" max="7169" width="14.5" style="30" customWidth="1"/>
+    <col min="7170" max="7170" width="13.625" style="30" customWidth="1"/>
+    <col min="7171" max="7171" width="15" style="30" customWidth="1"/>
+    <col min="7172" max="7172" width="14.5" style="30" customWidth="1"/>
+    <col min="7173" max="7173" width="14.25" style="30" customWidth="1"/>
+    <col min="7174" max="7424" width="11" style="30"/>
+    <col min="7425" max="7425" width="14.5" style="30" customWidth="1"/>
+    <col min="7426" max="7426" width="13.625" style="30" customWidth="1"/>
+    <col min="7427" max="7427" width="15" style="30" customWidth="1"/>
+    <col min="7428" max="7428" width="14.5" style="30" customWidth="1"/>
+    <col min="7429" max="7429" width="14.25" style="30" customWidth="1"/>
+    <col min="7430" max="7680" width="11" style="30"/>
+    <col min="7681" max="7681" width="14.5" style="30" customWidth="1"/>
+    <col min="7682" max="7682" width="13.625" style="30" customWidth="1"/>
+    <col min="7683" max="7683" width="15" style="30" customWidth="1"/>
+    <col min="7684" max="7684" width="14.5" style="30" customWidth="1"/>
+    <col min="7685" max="7685" width="14.25" style="30" customWidth="1"/>
+    <col min="7686" max="7936" width="11" style="30"/>
+    <col min="7937" max="7937" width="14.5" style="30" customWidth="1"/>
+    <col min="7938" max="7938" width="13.625" style="30" customWidth="1"/>
+    <col min="7939" max="7939" width="15" style="30" customWidth="1"/>
+    <col min="7940" max="7940" width="14.5" style="30" customWidth="1"/>
+    <col min="7941" max="7941" width="14.25" style="30" customWidth="1"/>
+    <col min="7942" max="8192" width="11" style="30"/>
+    <col min="8193" max="8193" width="14.5" style="30" customWidth="1"/>
+    <col min="8194" max="8194" width="13.625" style="30" customWidth="1"/>
+    <col min="8195" max="8195" width="15" style="30" customWidth="1"/>
+    <col min="8196" max="8196" width="14.5" style="30" customWidth="1"/>
+    <col min="8197" max="8197" width="14.25" style="30" customWidth="1"/>
+    <col min="8198" max="8448" width="11" style="30"/>
+    <col min="8449" max="8449" width="14.5" style="30" customWidth="1"/>
+    <col min="8450" max="8450" width="13.625" style="30" customWidth="1"/>
+    <col min="8451" max="8451" width="15" style="30" customWidth="1"/>
+    <col min="8452" max="8452" width="14.5" style="30" customWidth="1"/>
+    <col min="8453" max="8453" width="14.25" style="30" customWidth="1"/>
+    <col min="8454" max="8704" width="11" style="30"/>
+    <col min="8705" max="8705" width="14.5" style="30" customWidth="1"/>
+    <col min="8706" max="8706" width="13.625" style="30" customWidth="1"/>
+    <col min="8707" max="8707" width="15" style="30" customWidth="1"/>
+    <col min="8708" max="8708" width="14.5" style="30" customWidth="1"/>
+    <col min="8709" max="8709" width="14.25" style="30" customWidth="1"/>
+    <col min="8710" max="8960" width="11" style="30"/>
+    <col min="8961" max="8961" width="14.5" style="30" customWidth="1"/>
+    <col min="8962" max="8962" width="13.625" style="30" customWidth="1"/>
+    <col min="8963" max="8963" width="15" style="30" customWidth="1"/>
+    <col min="8964" max="8964" width="14.5" style="30" customWidth="1"/>
+    <col min="8965" max="8965" width="14.25" style="30" customWidth="1"/>
+    <col min="8966" max="9216" width="11" style="30"/>
+    <col min="9217" max="9217" width="14.5" style="30" customWidth="1"/>
+    <col min="9218" max="9218" width="13.625" style="30" customWidth="1"/>
+    <col min="9219" max="9219" width="15" style="30" customWidth="1"/>
+    <col min="9220" max="9220" width="14.5" style="30" customWidth="1"/>
+    <col min="9221" max="9221" width="14.25" style="30" customWidth="1"/>
+    <col min="9222" max="9472" width="11" style="30"/>
+    <col min="9473" max="9473" width="14.5" style="30" customWidth="1"/>
+    <col min="9474" max="9474" width="13.625" style="30" customWidth="1"/>
+    <col min="9475" max="9475" width="15" style="30" customWidth="1"/>
+    <col min="9476" max="9476" width="14.5" style="30" customWidth="1"/>
+    <col min="9477" max="9477" width="14.25" style="30" customWidth="1"/>
+    <col min="9478" max="9728" width="11" style="30"/>
+    <col min="9729" max="9729" width="14.5" style="30" customWidth="1"/>
+    <col min="9730" max="9730" width="13.625" style="30" customWidth="1"/>
+    <col min="9731" max="9731" width="15" style="30" customWidth="1"/>
+    <col min="9732" max="9732" width="14.5" style="30" customWidth="1"/>
+    <col min="9733" max="9733" width="14.25" style="30" customWidth="1"/>
+    <col min="9734" max="9984" width="11" style="30"/>
+    <col min="9985" max="9985" width="14.5" style="30" customWidth="1"/>
+    <col min="9986" max="9986" width="13.625" style="30" customWidth="1"/>
+    <col min="9987" max="9987" width="15" style="30" customWidth="1"/>
+    <col min="9988" max="9988" width="14.5" style="30" customWidth="1"/>
+    <col min="9989" max="9989" width="14.25" style="30" customWidth="1"/>
+    <col min="9990" max="10240" width="11" style="30"/>
+    <col min="10241" max="10241" width="14.5" style="30" customWidth="1"/>
+    <col min="10242" max="10242" width="13.625" style="30" customWidth="1"/>
+    <col min="10243" max="10243" width="15" style="30" customWidth="1"/>
+    <col min="10244" max="10244" width="14.5" style="30" customWidth="1"/>
+    <col min="10245" max="10245" width="14.25" style="30" customWidth="1"/>
+    <col min="10246" max="10496" width="11" style="30"/>
+    <col min="10497" max="10497" width="14.5" style="30" customWidth="1"/>
+    <col min="10498" max="10498" width="13.625" style="30" customWidth="1"/>
+    <col min="10499" max="10499" width="15" style="30" customWidth="1"/>
+    <col min="10500" max="10500" width="14.5" style="30" customWidth="1"/>
+    <col min="10501" max="10501" width="14.25" style="30" customWidth="1"/>
+    <col min="10502" max="10752" width="11" style="30"/>
+    <col min="10753" max="10753" width="14.5" style="30" customWidth="1"/>
+    <col min="10754" max="10754" width="13.625" style="30" customWidth="1"/>
+    <col min="10755" max="10755" width="15" style="30" customWidth="1"/>
+    <col min="10756" max="10756" width="14.5" style="30" customWidth="1"/>
+    <col min="10757" max="10757" width="14.25" style="30" customWidth="1"/>
+    <col min="10758" max="11008" width="11" style="30"/>
+    <col min="11009" max="11009" width="14.5" style="30" customWidth="1"/>
+    <col min="11010" max="11010" width="13.625" style="30" customWidth="1"/>
+    <col min="11011" max="11011" width="15" style="30" customWidth="1"/>
+    <col min="11012" max="11012" width="14.5" style="30" customWidth="1"/>
+    <col min="11013" max="11013" width="14.25" style="30" customWidth="1"/>
+    <col min="11014" max="11264" width="11" style="30"/>
+    <col min="11265" max="11265" width="14.5" style="30" customWidth="1"/>
+    <col min="11266" max="11266" width="13.625" style="30" customWidth="1"/>
+    <col min="11267" max="11267" width="15" style="30" customWidth="1"/>
+    <col min="11268" max="11268" width="14.5" style="30" customWidth="1"/>
+    <col min="11269" max="11269" width="14.25" style="30" customWidth="1"/>
+    <col min="11270" max="11520" width="11" style="30"/>
+    <col min="11521" max="11521" width="14.5" style="30" customWidth="1"/>
+    <col min="11522" max="11522" width="13.625" style="30" customWidth="1"/>
+    <col min="11523" max="11523" width="15" style="30" customWidth="1"/>
+    <col min="11524" max="11524" width="14.5" style="30" customWidth="1"/>
+    <col min="11525" max="11525" width="14.25" style="30" customWidth="1"/>
+    <col min="11526" max="11776" width="11" style="30"/>
+    <col min="11777" max="11777" width="14.5" style="30" customWidth="1"/>
+    <col min="11778" max="11778" width="13.625" style="30" customWidth="1"/>
+    <col min="11779" max="11779" width="15" style="30" customWidth="1"/>
+    <col min="11780" max="11780" width="14.5" style="30" customWidth="1"/>
+    <col min="11781" max="11781" width="14.25" style="30" customWidth="1"/>
+    <col min="11782" max="12032" width="11" style="30"/>
+    <col min="12033" max="12033" width="14.5" style="30" customWidth="1"/>
+    <col min="12034" max="12034" width="13.625" style="30" customWidth="1"/>
+    <col min="12035" max="12035" width="15" style="30" customWidth="1"/>
+    <col min="12036" max="12036" width="14.5" style="30" customWidth="1"/>
+    <col min="12037" max="12037" width="14.25" style="30" customWidth="1"/>
+    <col min="12038" max="12288" width="11" style="30"/>
+    <col min="12289" max="12289" width="14.5" style="30" customWidth="1"/>
+    <col min="12290" max="12290" width="13.625" style="30" customWidth="1"/>
+    <col min="12291" max="12291" width="15" style="30" customWidth="1"/>
+    <col min="12292" max="12292" width="14.5" style="30" customWidth="1"/>
+    <col min="12293" max="12293" width="14.25" style="30" customWidth="1"/>
+    <col min="12294" max="12544" width="11" style="30"/>
+    <col min="12545" max="12545" width="14.5" style="30" customWidth="1"/>
+    <col min="12546" max="12546" width="13.625" style="30" customWidth="1"/>
+    <col min="12547" max="12547" width="15" style="30" customWidth="1"/>
+    <col min="12548" max="12548" width="14.5" style="30" customWidth="1"/>
+    <col min="12549" max="12549" width="14.25" style="30" customWidth="1"/>
+    <col min="12550" max="12800" width="11" style="30"/>
+    <col min="12801" max="12801" width="14.5" style="30" customWidth="1"/>
+    <col min="12802" max="12802" width="13.625" style="30" customWidth="1"/>
+    <col min="12803" max="12803" width="15" style="30" customWidth="1"/>
+    <col min="12804" max="12804" width="14.5" style="30" customWidth="1"/>
+    <col min="12805" max="12805" width="14.25" style="30" customWidth="1"/>
+    <col min="12806" max="13056" width="11" style="30"/>
+    <col min="13057" max="13057" width="14.5" style="30" customWidth="1"/>
+    <col min="13058" max="13058" width="13.625" style="30" customWidth="1"/>
+    <col min="13059" max="13059" width="15" style="30" customWidth="1"/>
+    <col min="13060" max="13060" width="14.5" style="30" customWidth="1"/>
+    <col min="13061" max="13061" width="14.25" style="30" customWidth="1"/>
+    <col min="13062" max="13312" width="11" style="30"/>
+    <col min="13313" max="13313" width="14.5" style="30" customWidth="1"/>
+    <col min="13314" max="13314" width="13.625" style="30" customWidth="1"/>
+    <col min="13315" max="13315" width="15" style="30" customWidth="1"/>
+    <col min="13316" max="13316" width="14.5" style="30" customWidth="1"/>
+    <col min="13317" max="13317" width="14.25" style="30" customWidth="1"/>
+    <col min="13318" max="13568" width="11" style="30"/>
+    <col min="13569" max="13569" width="14.5" style="30" customWidth="1"/>
+    <col min="13570" max="13570" width="13.625" style="30" customWidth="1"/>
+    <col min="13571" max="13571" width="15" style="30" customWidth="1"/>
+    <col min="13572" max="13572" width="14.5" style="30" customWidth="1"/>
+    <col min="13573" max="13573" width="14.25" style="30" customWidth="1"/>
+    <col min="13574" max="13824" width="11" style="30"/>
+    <col min="13825" max="13825" width="14.5" style="30" customWidth="1"/>
+    <col min="13826" max="13826" width="13.625" style="30" customWidth="1"/>
+    <col min="13827" max="13827" width="15" style="30" customWidth="1"/>
+    <col min="13828" max="13828" width="14.5" style="30" customWidth="1"/>
+    <col min="13829" max="13829" width="14.25" style="30" customWidth="1"/>
+    <col min="13830" max="14080" width="11" style="30"/>
+    <col min="14081" max="14081" width="14.5" style="30" customWidth="1"/>
+    <col min="14082" max="14082" width="13.625" style="30" customWidth="1"/>
+    <col min="14083" max="14083" width="15" style="30" customWidth="1"/>
+    <col min="14084" max="14084" width="14.5" style="30" customWidth="1"/>
+    <col min="14085" max="14085" width="14.25" style="30" customWidth="1"/>
+    <col min="14086" max="14336" width="11" style="30"/>
+    <col min="14337" max="14337" width="14.5" style="30" customWidth="1"/>
+    <col min="14338" max="14338" width="13.625" style="30" customWidth="1"/>
+    <col min="14339" max="14339" width="15" style="30" customWidth="1"/>
+    <col min="14340" max="14340" width="14.5" style="30" customWidth="1"/>
+    <col min="14341" max="14341" width="14.25" style="30" customWidth="1"/>
+    <col min="14342" max="14592" width="11" style="30"/>
+    <col min="14593" max="14593" width="14.5" style="30" customWidth="1"/>
+    <col min="14594" max="14594" width="13.625" style="30" customWidth="1"/>
+    <col min="14595" max="14595" width="15" style="30" customWidth="1"/>
+    <col min="14596" max="14596" width="14.5" style="30" customWidth="1"/>
+    <col min="14597" max="14597" width="14.25" style="30" customWidth="1"/>
+    <col min="14598" max="14848" width="11" style="30"/>
+    <col min="14849" max="14849" width="14.5" style="30" customWidth="1"/>
+    <col min="14850" max="14850" width="13.625" style="30" customWidth="1"/>
+    <col min="14851" max="14851" width="15" style="30" customWidth="1"/>
+    <col min="14852" max="14852" width="14.5" style="30" customWidth="1"/>
+    <col min="14853" max="14853" width="14.25" style="30" customWidth="1"/>
+    <col min="14854" max="15104" width="11" style="30"/>
+    <col min="15105" max="15105" width="14.5" style="30" customWidth="1"/>
+    <col min="15106" max="15106" width="13.625" style="30" customWidth="1"/>
+    <col min="15107" max="15107" width="15" style="30" customWidth="1"/>
+    <col min="15108" max="15108" width="14.5" style="30" customWidth="1"/>
+    <col min="15109" max="15109" width="14.25" style="30" customWidth="1"/>
+    <col min="15110" max="15360" width="11" style="30"/>
+    <col min="15361" max="15361" width="14.5" style="30" customWidth="1"/>
+    <col min="15362" max="15362" width="13.625" style="30" customWidth="1"/>
+    <col min="15363" max="15363" width="15" style="30" customWidth="1"/>
+    <col min="15364" max="15364" width="14.5" style="30" customWidth="1"/>
+    <col min="15365" max="15365" width="14.25" style="30" customWidth="1"/>
+    <col min="15366" max="15616" width="11" style="30"/>
+    <col min="15617" max="15617" width="14.5" style="30" customWidth="1"/>
+    <col min="15618" max="15618" width="13.625" style="30" customWidth="1"/>
+    <col min="15619" max="15619" width="15" style="30" customWidth="1"/>
+    <col min="15620" max="15620" width="14.5" style="30" customWidth="1"/>
+    <col min="15621" max="15621" width="14.25" style="30" customWidth="1"/>
+    <col min="15622" max="15872" width="11" style="30"/>
+    <col min="15873" max="15873" width="14.5" style="30" customWidth="1"/>
+    <col min="15874" max="15874" width="13.625" style="30" customWidth="1"/>
+    <col min="15875" max="15875" width="15" style="30" customWidth="1"/>
+    <col min="15876" max="15876" width="14.5" style="30" customWidth="1"/>
+    <col min="15877" max="15877" width="14.25" style="30" customWidth="1"/>
+    <col min="15878" max="16128" width="11" style="30"/>
+    <col min="16129" max="16129" width="14.5" style="30" customWidth="1"/>
+    <col min="16130" max="16130" width="13.625" style="30" customWidth="1"/>
+    <col min="16131" max="16131" width="15" style="30" customWidth="1"/>
+    <col min="16132" max="16132" width="14.5" style="30" customWidth="1"/>
+    <col min="16133" max="16133" width="14.25" style="30" customWidth="1"/>
+    <col min="16134" max="16383" width="11" style="30"/>
     <col min="16384" max="16384" width="11"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
     </row>
     <row r="3" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
     </row>
     <row r="4" ht="15" spans="1:5">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
     </row>
     <row r="5" ht="18" spans="1:5">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="35" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" ht="17.25" spans="1:7">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="37">
         <v>44661</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="30"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="41"/>
     </row>
     <row r="7" ht="17.25" spans="1:7">
-      <c r="A7" s="25"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="30"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="41"/>
     </row>
     <row r="8" ht="17.25" spans="1:5">
-      <c r="A8" s="25"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="28"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="39"/>
     </row>
     <row r="9" ht="17.25" spans="1:5">
-      <c r="A9" s="25"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="28"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="39"/>
     </row>
     <row r="10" ht="17.25" spans="1:5">
-      <c r="A10" s="25"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="28"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="39"/>
     </row>
     <row r="11" ht="17.25" spans="1:5">
-      <c r="A11" s="25"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="28"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="39"/>
     </row>
     <row r="12" ht="17.25" spans="1:5">
-      <c r="A12" s="25"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="28"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="39"/>
     </row>
     <row r="13" ht="17.25" spans="1:5">
-      <c r="A13" s="25"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="28"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="39"/>
     </row>
     <row r="14" ht="17.25" spans="1:5">
-      <c r="A14" s="25"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="28"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="39"/>
     </row>
     <row r="15" ht="17.25" spans="1:5">
-      <c r="A15" s="25"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="28"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="39"/>
     </row>
     <row r="16" ht="17.25" spans="1:5">
-      <c r="A16" s="25"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="28"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="39"/>
     </row>
     <row r="17" ht="17.25" spans="1:5">
-      <c r="A17" s="25"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="28"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="39"/>
     </row>
     <row r="18" ht="17.25" spans="1:5">
-      <c r="A18" s="25"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="28"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="39"/>
     </row>
     <row r="19" ht="17.25" spans="1:5">
-      <c r="A19" s="25"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="28"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="39"/>
     </row>
     <row r="20" ht="17.25" spans="1:5">
-      <c r="A20" s="25"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="28"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="39"/>
     </row>
     <row r="21" ht="17.25" spans="1:5">
-      <c r="A21" s="25"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="28"/>
+      <c r="A21" s="36"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="39"/>
     </row>
     <row r="22" ht="17.25" spans="1:5">
-      <c r="A22" s="25"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="28"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="39"/>
     </row>
     <row r="23" ht="17.25" spans="1:5">
-      <c r="A23" s="25"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="28"/>
+      <c r="A23" s="36"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="39"/>
     </row>
     <row r="24" ht="17.25" spans="1:5">
-      <c r="A24" s="25"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="28"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="39"/>
     </row>
     <row r="25" ht="17.25" spans="1:5">
-      <c r="A25" s="25"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="28"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="39"/>
     </row>
     <row r="26" ht="17.25" spans="1:5">
-      <c r="A26" s="25"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="28"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="39"/>
     </row>
     <row r="27" ht="17.25" spans="1:5">
-      <c r="A27" s="25"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="28"/>
+      <c r="A27" s="36"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="39"/>
     </row>
     <row r="28" ht="17.25" spans="1:5">
-      <c r="A28" s="25"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="28"/>
+      <c r="A28" s="36"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="39"/>
     </row>
     <row r="29" ht="17.25" spans="1:5">
-      <c r="A29" s="25"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="28"/>
+      <c r="A29" s="36"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="39"/>
     </row>
     <row r="30" ht="17.25" spans="1:5">
-      <c r="A30" s="25"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="28"/>
+      <c r="A30" s="36"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="39"/>
     </row>
     <row r="31" ht="17.25" spans="1:5">
-      <c r="A31" s="25"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="28"/>
+      <c r="A31" s="36"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="39"/>
     </row>
     <row r="32" ht="17.25" spans="1:5">
-      <c r="A32" s="25"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="28"/>
+      <c r="A32" s="36"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="39"/>
     </row>
     <row r="33" ht="17.25" spans="1:5">
-      <c r="A33" s="25"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="28"/>
+      <c r="A33" s="36"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="39"/>
     </row>
     <row r="34" ht="17.25" spans="1:5">
-      <c r="A34" s="25"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="28"/>
+      <c r="A34" s="36"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="39"/>
     </row>
     <row r="35" ht="17.25" spans="1:5">
-      <c r="A35" s="25"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="28"/>
+      <c r="A35" s="36"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="39"/>
     </row>
     <row r="36" ht="17.25" spans="1:5">
-      <c r="A36" s="25"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="28"/>
+      <c r="A36" s="36"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="39"/>
     </row>
     <row r="37" ht="17.25" spans="1:5">
-      <c r="A37" s="25"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="28"/>
+      <c r="A37" s="36"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="39"/>
     </row>
     <row r="38" ht="17.25" spans="1:5">
-      <c r="A38" s="25"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="28"/>
+      <c r="A38" s="36"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="39"/>
     </row>
     <row r="39" ht="18" spans="1:5">
-      <c r="A39" s="32"/>
-      <c r="B39" s="33"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="34"/>
+      <c r="A39" s="43"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2608,63 +2709,62 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AE6"/>
+  <dimension ref="A1:AD15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.125" customWidth="1"/>
-    <col min="2" max="2" width="6.09166666666667" customWidth="1"/>
-    <col min="3" max="3" width="8.43333333333333" customWidth="1"/>
-    <col min="4" max="4" width="15.4583333333333" customWidth="1"/>
-    <col min="5" max="5" width="20.725" customWidth="1"/>
-    <col min="6" max="6" width="14.8416666666667" style="9" customWidth="1"/>
-    <col min="7" max="7" width="52.6416666666667" style="9" customWidth="1"/>
-    <col min="8" max="8" width="25.1416666666667" style="9" customWidth="1"/>
-    <col min="9" max="9" width="9.83333333333333" style="9" customWidth="1"/>
-    <col min="10" max="10" width="8.43333333333333" style="9" customWidth="1"/>
-    <col min="11" max="11" width="11.5583333333333" customWidth="1"/>
-    <col min="12" max="12" width="20.3083333333333" customWidth="1"/>
+    <col min="1" max="1" width="3.79166666666667" customWidth="1"/>
+    <col min="2" max="2" width="8.43333333333333" customWidth="1"/>
+    <col min="3" max="3" width="15.4583333333333" customWidth="1"/>
+    <col min="4" max="4" width="12.7833333333333" customWidth="1"/>
+    <col min="5" max="5" width="30.475" customWidth="1"/>
+    <col min="6" max="6" width="10.25" customWidth="1"/>
+    <col min="7" max="7" width="17.55" style="10" customWidth="1"/>
+    <col min="8" max="8" width="73.7333333333333" style="11" customWidth="1"/>
+    <col min="9" max="9" width="8.43333333333333" style="10" customWidth="1"/>
+    <col min="10" max="10" width="11.5583333333333" customWidth="1"/>
+    <col min="11" max="11" width="20.3083333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" ht="30" customHeight="1" spans="1:31">
-      <c r="A1" s="10" t="s">
+    <row r="1" s="5" customFormat="1" ht="30" customHeight="1" spans="1:30">
+      <c r="A1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10" t="s">
+      <c r="H1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="I1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="J1" s="12" t="s">
         <v>18</v>
       </c>
+      <c r="K1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1"/>
       <c r="M1"/>
       <c r="N1"/>
       <c r="O1"/>
@@ -2683,72 +2783,73 @@
       <c r="AB1"/>
       <c r="AC1"/>
       <c r="AD1"/>
-      <c r="AE1"/>
-    </row>
-    <row r="2" s="6" customFormat="1" ht="20" customHeight="1" spans="1:31">
-      <c r="A2" s="11">
+    </row>
+    <row r="2" s="6" customFormat="1" ht="20" customHeight="1" spans="1:30">
+      <c r="A2" s="15">
         <v>0</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11" t="s">
+      <c r="B2" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="C2" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
-      <c r="V2"/>
-      <c r="W2"/>
-      <c r="X2"/>
-      <c r="Y2"/>
-      <c r="Z2"/>
-      <c r="AA2"/>
-      <c r="AB2"/>
-      <c r="AC2"/>
-      <c r="AD2"/>
-      <c r="AE2"/>
-    </row>
-    <row r="3" s="6" customFormat="1" ht="20" customHeight="1" spans="1:31">
-      <c r="A3" s="11">
-        <v>0</v>
-      </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11" t="s">
+      <c r="D2" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="E2" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="F2" s="17"/>
+      <c r="G2" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
+      <c r="H2" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="9"/>
+    </row>
+    <row r="3" s="7" customFormat="1" ht="20" customHeight="1" spans="1:30">
+      <c r="A3" s="20"/>
+      <c r="B3" s="21"/>
+      <c r="D3" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3"/>
       <c r="M3"/>
       <c r="N3"/>
       <c r="O3"/>
@@ -2767,167 +2868,338 @@
       <c r="AB3"/>
       <c r="AC3"/>
       <c r="AD3"/>
-      <c r="AE3"/>
-    </row>
-    <row r="4" s="7" customFormat="1" ht="20" customHeight="1" spans="1:31">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14">
+    </row>
+    <row r="4" s="8" customFormat="1" ht="20" customHeight="1" spans="1:30">
+      <c r="A4" s="24"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="29"/>
+      <c r="X4" s="29"/>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="29"/>
+      <c r="AA4" s="29"/>
+      <c r="AB4" s="29"/>
+      <c r="AC4" s="29"/>
+      <c r="AD4" s="29"/>
+    </row>
+    <row r="5" s="8" customFormat="1" ht="20" customHeight="1" spans="1:30">
+      <c r="A5" s="24"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="29"/>
+      <c r="W5" s="29"/>
+      <c r="X5" s="29"/>
+      <c r="Y5" s="29"/>
+      <c r="Z5" s="29"/>
+      <c r="AA5" s="29"/>
+      <c r="AB5" s="29"/>
+      <c r="AC5" s="29"/>
+      <c r="AD5" s="29"/>
+    </row>
+    <row r="6" s="8" customFormat="1" ht="20" customHeight="1" spans="1:30">
+      <c r="A6" s="24"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="29"/>
+      <c r="X6" s="29"/>
+      <c r="Y6" s="29"/>
+      <c r="Z6" s="29"/>
+      <c r="AA6" s="29"/>
+      <c r="AB6" s="29"/>
+      <c r="AC6" s="29"/>
+      <c r="AD6" s="29"/>
+    </row>
+    <row r="7" s="9" customFormat="1" ht="20" customHeight="1" spans="1:11">
+      <c r="A7" s="15">
         <v>0</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="14" t="s">
+      <c r="B7" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="17"/>
+      <c r="G7" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+    </row>
+    <row r="8" ht="20" customHeight="1" spans="1:11">
+      <c r="A8" s="20"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+    </row>
+    <row r="9" ht="20" customHeight="1" spans="1:11">
+      <c r="A9" s="20"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+    </row>
+    <row r="10" ht="20" customHeight="1" spans="1:11">
+      <c r="A10" s="20"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="23"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+    </row>
+    <row r="11" s="9" customFormat="1" ht="20" customHeight="1" spans="1:11">
+      <c r="A11" s="15">
+        <v>0</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+    </row>
+    <row r="12" ht="20" customHeight="1" spans="1:11">
+      <c r="A12" s="20"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+    </row>
+    <row r="13" s="9" customFormat="1" ht="20" customHeight="1" spans="1:11">
+      <c r="A13" s="15">
+        <v>0</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15" t="s">
+      <c r="I13" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4"/>
-      <c r="X4"/>
-      <c r="Y4"/>
-      <c r="Z4"/>
-      <c r="AA4"/>
-      <c r="AB4"/>
-      <c r="AC4"/>
-      <c r="AD4"/>
-      <c r="AE4"/>
-    </row>
-    <row r="5" s="7" customFormat="1" ht="20" customHeight="1" spans="1:31">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="13"/>
-      <c r="E5" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="14">
-        <v>18650617</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="14"/>
-      <c r="M5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5"/>
-      <c r="X5"/>
-      <c r="Y5"/>
-      <c r="Z5"/>
-      <c r="AA5"/>
-      <c r="AB5"/>
-      <c r="AC5"/>
-      <c r="AD5"/>
-      <c r="AE5"/>
-    </row>
-    <row r="6" s="8" customFormat="1" ht="20" customHeight="1" spans="1:31">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="18"/>
-      <c r="W6" s="18"/>
-      <c r="X6" s="18"/>
-      <c r="Y6" s="18"/>
-      <c r="Z6" s="18"/>
-      <c r="AA6" s="18"/>
-      <c r="AB6" s="18"/>
-      <c r="AC6" s="18"/>
-      <c r="AD6" s="18"/>
-      <c r="AE6" s="18"/>
-    </row>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+    </row>
+    <row r="14" customFormat="1" ht="20" customHeight="1" spans="1:11">
+      <c r="A14" s="20"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+    </row>
+    <row r="15" ht="20" customHeight="1"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C2:C5"/>
-  </mergeCells>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="expression" dxfId="0" priority="3">
-      <formula>$B5&lt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$B5&lt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$D5="assert"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1 K3 K5 K6 K7:K1048576">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3 D4">
-      <formula1>"是，否"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5">
-      <formula1>#REF!</formula1>
-    </dataValidation>
+  <dataValidations count="1">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:D1 E1 F1 G1:H1 I1:XFD1 J2:XFD2 A5:C5 D5 E5 F5 G5:H5 I5 J5:XFD5 A6:C6 D6 E6 F6 G6 H6 I6 J6:XFD6 J8:K8 A9:D9 E9 F9 G9:H9 I9 J9:K9 L9:XFD9 A10:D10 E10 F10 G10:H10 I10 J10:K10 L10:XFD10 E11 F11 E12 F12 A13:D13 E13 F13 G13:H13 I13 J13:XFD13 A14:C14 D14 E14 F14 G14 H14 I14 J14:XFD14 E15 E2:E4 E7:E8 E16:E17 E18:E1048576 F2:F4 F7:F8 F15:F1048576 G18:G19 H18:H19 I2:I4 I7:I8 I11:I12 G2:H4 L7:XFD8 A2:D4 A7:D8 A11:D12 J3:XFD4 J11:XFD12 G7:H8 G11:H12 A15:D1048576 I15:XFD1048576 G15:H17 G20:H1048576" errorStyle="information"/>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="G5" r:id="rId1" display="18650617" tooltip="http://10.250.112.166:9000/#/dashboard"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
@@ -2956,128 +3228,128 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="D2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="D3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" ht="25.5" spans="2:7">
       <c r="B4" s="2" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="D4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="2" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="2" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="2" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="2" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" s="2" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" s="2" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="C10" s="3">
         <v>360</v>
@@ -3085,7 +3357,7 @@
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="2" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
